--- a/data/template/Test3/template_out.xlsx
+++ b/data/template/Test3/template_out.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="570" windowWidth="28215" windowHeight="11700"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="sol_maints" sheetId="1" r:id="rId1"/>
-    <sheet name="sol_stats" sheetId="2" r:id="rId2"/>
+    <sheet name="sol_maints" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sol_stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="sol_missions" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sol_maints!$A$1:$E$436</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>avion</t>
   </si>
@@ -327,38 +326,46 @@
   </si>
   <si>
     <t>cap</t>
+  </si>
+  <si>
+    <t>mission</t>
+  </si>
+  <si>
+    <t>periode</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>O3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -370,41 +377,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -692,14 +684,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E436"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -728,9 +724,10 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -742,11 +739,11 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
-        <v>60</v>
-      </c>
-      <c r="E3">
-        <v>959</v>
+      <c r="D3" t="n">
+        <v>27</v>
+      </c>
+      <c r="E3" t="n">
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -759,10 +756,10 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
         <v>20</v>
       </c>
     </row>
@@ -776,10 +773,10 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
         <v>20</v>
       </c>
     </row>
@@ -793,10 +790,10 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
         <v>20</v>
       </c>
     </row>
@@ -810,9 +807,10 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" t="n">
         <v>16</v>
       </c>
+      <c r="E7" t="s"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
@@ -824,9 +822,10 @@
       <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>16</v>
       </c>
+      <c r="E8" t="s"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
@@ -838,9 +837,10 @@
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
@@ -852,8 +852,9 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="E10">
-        <v>600</v>
+      <c r="D10" t="s"/>
+      <c r="E10" t="n">
+        <v>990</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -866,9 +867,10 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
@@ -880,9 +882,10 @@
       <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>16</v>
       </c>
+      <c r="E12" t="s"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
@@ -894,9 +897,10 @@
       <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D13">
-        <v>8</v>
-      </c>
+      <c r="D13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
@@ -908,9 +912,10 @@
       <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D14">
-        <v>8</v>
-      </c>
+      <c r="D14" t="n">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
@@ -922,9 +927,10 @@
       <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>16</v>
       </c>
+      <c r="E15" t="s"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
@@ -936,9 +942,10 @@
       <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
+      <c r="D16" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
@@ -950,7 +957,8 @@
       <c r="C17" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="2">
+      <c r="D17" t="s"/>
+      <c r="E17" t="n">
         <v>609</v>
       </c>
     </row>
@@ -964,9 +972,10 @@
       <c r="C18" t="s">
         <v>7</v>
       </c>
-      <c r="D18">
-        <v>8</v>
-      </c>
+      <c r="D18" t="n">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
@@ -978,9 +987,10 @@
       <c r="C19" t="s">
         <v>14</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>16</v>
       </c>
+      <c r="E19" t="s"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
@@ -992,9 +1002,10 @@
       <c r="C20" t="s">
         <v>7</v>
       </c>
-      <c r="D20">
-        <v>8</v>
-      </c>
+      <c r="D20" t="n">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
@@ -1006,10 +1017,10 @@
       <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>60</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>989</v>
       </c>
     </row>
@@ -1023,10 +1034,10 @@
       <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1040,10 +1051,10 @@
       <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1057,10 +1068,10 @@
       <c r="C24" t="s">
         <v>9</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1074,9 +1085,10 @@
       <c r="C25" t="s">
         <v>7</v>
       </c>
-      <c r="D25">
-        <v>8</v>
-      </c>
+      <c r="D25" t="n">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
@@ -1088,9 +1100,10 @@
       <c r="C26" t="s">
         <v>7</v>
       </c>
-      <c r="D26">
-        <v>8</v>
-      </c>
+      <c r="D26" t="n">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
@@ -1102,9 +1115,10 @@
       <c r="C27" t="s">
         <v>14</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>16</v>
       </c>
+      <c r="E27" t="s"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
@@ -1116,9 +1130,10 @@
       <c r="C28" t="s">
         <v>7</v>
       </c>
-      <c r="D28">
-        <v>8</v>
-      </c>
+      <c r="D28" t="n">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
@@ -1130,7 +1145,8 @@
       <c r="C29" t="s">
         <v>17</v>
       </c>
-      <c r="E29">
+      <c r="D29" t="s"/>
+      <c r="E29" t="n">
         <v>540</v>
       </c>
     </row>
@@ -1144,9 +1160,10 @@
       <c r="C30" t="s">
         <v>7</v>
       </c>
-      <c r="D30">
-        <v>8</v>
-      </c>
+      <c r="D30" t="n">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
@@ -1158,9 +1175,10 @@
       <c r="C31" t="s">
         <v>14</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>16</v>
       </c>
+      <c r="E31" t="s"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
@@ -1172,9 +1190,10 @@
       <c r="C32" t="s">
         <v>7</v>
       </c>
-      <c r="D32">
-        <v>8</v>
-      </c>
+      <c r="D32" t="n">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
@@ -1186,7 +1205,8 @@
       <c r="C33" t="s">
         <v>17</v>
       </c>
-      <c r="E33">
+      <c r="D33" t="s"/>
+      <c r="E33" t="n">
         <v>598</v>
       </c>
     </row>
@@ -1200,9 +1220,10 @@
       <c r="C34" t="s">
         <v>7</v>
       </c>
-      <c r="D34">
-        <v>8</v>
-      </c>
+      <c r="D34" t="n">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
@@ -1214,9 +1235,10 @@
       <c r="C35" t="s">
         <v>14</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>16</v>
       </c>
+      <c r="E35" t="s"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
@@ -1228,9 +1250,10 @@
       <c r="C36" t="s">
         <v>7</v>
       </c>
-      <c r="D36">
-        <v>8</v>
-      </c>
+      <c r="D36" t="n">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
@@ -1242,10 +1265,10 @@
       <c r="C37" t="s">
         <v>9</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>60</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>958</v>
       </c>
     </row>
@@ -1259,10 +1282,10 @@
       <c r="C38" t="s">
         <v>9</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1276,10 +1299,10 @@
       <c r="C39" t="s">
         <v>9</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1293,10 +1316,10 @@
       <c r="C40" t="s">
         <v>9</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1310,9 +1333,10 @@
       <c r="C41" t="s">
         <v>7</v>
       </c>
-      <c r="D41">
-        <v>8</v>
-      </c>
+      <c r="D41" t="n">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
@@ -1324,9 +1348,10 @@
       <c r="C42" t="s">
         <v>7</v>
       </c>
-      <c r="D42">
-        <v>8</v>
-      </c>
+      <c r="D42" t="n">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
@@ -1338,9 +1363,10 @@
       <c r="C43" t="s">
         <v>14</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>16</v>
       </c>
+      <c r="E43" t="s"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
@@ -1352,9 +1378,10 @@
       <c r="C44" t="s">
         <v>7</v>
       </c>
-      <c r="D44">
-        <v>8</v>
-      </c>
+      <c r="D44" t="n">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
@@ -1366,7 +1393,8 @@
       <c r="C45" t="s">
         <v>17</v>
       </c>
-      <c r="E45">
+      <c r="D45" t="s"/>
+      <c r="E45" t="n">
         <v>600</v>
       </c>
     </row>
@@ -1380,9 +1408,10 @@
       <c r="C46" t="s">
         <v>14</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>16</v>
       </c>
+      <c r="E46" t="s"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
@@ -1394,9 +1423,10 @@
       <c r="C47" t="s">
         <v>7</v>
       </c>
-      <c r="D47">
-        <v>8</v>
-      </c>
+      <c r="D47" t="n">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
@@ -1408,7 +1438,8 @@
       <c r="C48" t="s">
         <v>17</v>
       </c>
-      <c r="E48">
+      <c r="D48" t="s"/>
+      <c r="E48" t="n">
         <v>599</v>
       </c>
     </row>
@@ -1422,9 +1453,10 @@
       <c r="C49" t="s">
         <v>7</v>
       </c>
-      <c r="D49">
-        <v>8</v>
-      </c>
+      <c r="D49" t="n">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
@@ -1436,9 +1468,10 @@
       <c r="C50" t="s">
         <v>14</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>16</v>
       </c>
+      <c r="E50" t="s"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
@@ -1450,9 +1483,10 @@
       <c r="C51" t="s">
         <v>7</v>
       </c>
-      <c r="D51">
-        <v>8</v>
-      </c>
+      <c r="D51" t="n">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
@@ -1464,9 +1498,10 @@
       <c r="C52" t="s">
         <v>7</v>
       </c>
-      <c r="D52">
-        <v>8</v>
-      </c>
+      <c r="D52" t="n">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
@@ -1478,10 +1513,10 @@
       <c r="C53" t="s">
         <v>9</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>60</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>1039</v>
       </c>
     </row>
@@ -1495,10 +1530,10 @@
       <c r="C54" t="s">
         <v>9</v>
       </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1512,10 +1547,10 @@
       <c r="C55" t="s">
         <v>9</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1529,10 +1564,10 @@
       <c r="C56" t="s">
         <v>9</v>
       </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1546,9 +1581,10 @@
       <c r="C57" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" t="n">
         <v>16</v>
       </c>
+      <c r="E57" t="s"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
@@ -1560,9 +1596,10 @@
       <c r="C58" t="s">
         <v>14</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>16</v>
       </c>
+      <c r="E58" t="s"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
@@ -1574,9 +1611,10 @@
       <c r="C59" t="s">
         <v>7</v>
       </c>
-      <c r="D59">
-        <v>8</v>
-      </c>
+      <c r="D59" t="n">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
@@ -1588,9 +1626,10 @@
       <c r="C60" t="s">
         <v>14</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>16</v>
       </c>
+      <c r="E60" t="s"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
@@ -1602,9 +1641,10 @@
       <c r="C61" t="s">
         <v>7</v>
       </c>
-      <c r="D61">
-        <v>8</v>
-      </c>
+      <c r="D61" t="n">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
@@ -1616,7 +1656,8 @@
       <c r="C62" t="s">
         <v>17</v>
       </c>
-      <c r="E62" s="2">
+      <c r="D62" t="s"/>
+      <c r="E62" t="n">
         <v>619</v>
       </c>
     </row>
@@ -1630,9 +1671,10 @@
       <c r="C63" t="s">
         <v>7</v>
       </c>
-      <c r="D63">
-        <v>8</v>
-      </c>
+      <c r="D63" t="n">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
@@ -1644,9 +1686,10 @@
       <c r="C64" t="s">
         <v>14</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>16</v>
       </c>
+      <c r="E64" t="s"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
@@ -1658,9 +1701,10 @@
       <c r="C65" t="s">
         <v>7</v>
       </c>
-      <c r="D65">
-        <v>8</v>
-      </c>
+      <c r="D65" t="n">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
@@ -1672,9 +1716,10 @@
       <c r="C66" t="s">
         <v>7</v>
       </c>
-      <c r="D66">
-        <v>8</v>
-      </c>
+      <c r="D66" t="n">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
@@ -1686,10 +1731,10 @@
       <c r="C67" t="s">
         <v>9</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>60</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>1099</v>
       </c>
     </row>
@@ -1703,10 +1748,10 @@
       <c r="C68" t="s">
         <v>9</v>
       </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1720,10 +1765,10 @@
       <c r="C69" t="s">
         <v>9</v>
       </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1737,10 +1782,10 @@
       <c r="C70" t="s">
         <v>9</v>
       </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1754,9 +1799,10 @@
       <c r="C71" t="s">
         <v>7</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" t="n">
         <v>16</v>
       </c>
+      <c r="E71" t="s"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
@@ -1768,9 +1814,10 @@
       <c r="C72" t="s">
         <v>14</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>16</v>
       </c>
+      <c r="E72" t="s"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
@@ -1782,9 +1829,10 @@
       <c r="C73" t="s">
         <v>7</v>
       </c>
-      <c r="D73">
-        <v>8</v>
-      </c>
+      <c r="D73" t="n">
+        <v>8</v>
+      </c>
+      <c r="E73" t="s"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
@@ -1796,9 +1844,10 @@
       <c r="C74" t="s">
         <v>7</v>
       </c>
-      <c r="D74">
-        <v>8</v>
-      </c>
+      <c r="D74" t="n">
+        <v>8</v>
+      </c>
+      <c r="E74" t="s"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
@@ -1810,9 +1859,10 @@
       <c r="C75" t="s">
         <v>7</v>
       </c>
-      <c r="D75">
-        <v>8</v>
-      </c>
+      <c r="D75" t="n">
+        <v>8</v>
+      </c>
+      <c r="E75" t="s"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
@@ -1824,9 +1874,10 @@
       <c r="C76" t="s">
         <v>14</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="n">
         <v>16</v>
       </c>
+      <c r="E76" t="s"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
@@ -1838,7 +1889,8 @@
       <c r="C77" t="s">
         <v>17</v>
       </c>
-      <c r="E77">
+      <c r="D77" t="s"/>
+      <c r="E77" t="n">
         <v>607</v>
       </c>
     </row>
@@ -1852,9 +1904,10 @@
       <c r="C78" t="s">
         <v>7</v>
       </c>
-      <c r="D78">
-        <v>8</v>
-      </c>
+      <c r="D78" t="n">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
@@ -1866,9 +1919,10 @@
       <c r="C79" t="s">
         <v>7</v>
       </c>
-      <c r="D79">
-        <v>8</v>
-      </c>
+      <c r="D79" t="n">
+        <v>8</v>
+      </c>
+      <c r="E79" t="s"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
@@ -1880,9 +1934,10 @@
       <c r="C80" t="s">
         <v>14</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="n">
         <v>16</v>
       </c>
+      <c r="E80" t="s"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
@@ -1894,9 +1949,10 @@
       <c r="C81" t="s">
         <v>7</v>
       </c>
-      <c r="D81">
-        <v>8</v>
-      </c>
+      <c r="D81" t="n">
+        <v>8</v>
+      </c>
+      <c r="E81" t="s"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
@@ -1908,11 +1964,11 @@
       <c r="C82" t="s">
         <v>9</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="n">
         <v>60</v>
       </c>
-      <c r="E82">
-        <v>1047</v>
+      <c r="E82" t="n">
+        <v>1437</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1925,10 +1981,10 @@
       <c r="C83" t="s">
         <v>9</v>
       </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1942,10 +1998,10 @@
       <c r="C84" t="s">
         <v>9</v>
       </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1959,10 +2015,10 @@
       <c r="C85" t="s">
         <v>9</v>
       </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85">
+      <c r="D85" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1976,9 +2032,10 @@
       <c r="C86" t="s">
         <v>7</v>
       </c>
-      <c r="D86">
-        <v>8</v>
-      </c>
+      <c r="D86" t="n">
+        <v>8</v>
+      </c>
+      <c r="E86" t="s"/>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
@@ -1990,9 +2047,10 @@
       <c r="C87" t="s">
         <v>7</v>
       </c>
-      <c r="D87">
-        <v>8</v>
-      </c>
+      <c r="D87" t="n">
+        <v>8</v>
+      </c>
+      <c r="E87" t="s"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
@@ -2004,9 +2062,10 @@
       <c r="C88" t="s">
         <v>14</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="n">
         <v>16</v>
       </c>
+      <c r="E88" t="s"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
@@ -2018,9 +2077,10 @@
       <c r="C89" t="s">
         <v>7</v>
       </c>
-      <c r="D89" s="2">
-        <v>7</v>
-      </c>
+      <c r="D89" t="n">
+        <v>7</v>
+      </c>
+      <c r="E89" t="s"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
@@ -2032,10 +2092,10 @@
       <c r="C90" t="s">
         <v>9</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="n">
         <v>60</v>
       </c>
-      <c r="E90">
+      <c r="E90" t="n">
         <v>1132</v>
       </c>
     </row>
@@ -2049,10 +2109,10 @@
       <c r="C91" t="s">
         <v>9</v>
       </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91">
+      <c r="D91" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2066,10 +2126,10 @@
       <c r="C92" t="s">
         <v>9</v>
       </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92">
+      <c r="D92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2083,10 +2143,10 @@
       <c r="C93" t="s">
         <v>9</v>
       </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93">
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2100,9 +2160,10 @@
       <c r="C94" t="s">
         <v>7</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" t="n">
         <v>16</v>
       </c>
+      <c r="E94" t="s"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
@@ -2114,9 +2175,10 @@
       <c r="C95" t="s">
         <v>14</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="n">
         <v>16</v>
       </c>
+      <c r="E95" t="s"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
@@ -2128,9 +2190,10 @@
       <c r="C96" t="s">
         <v>7</v>
       </c>
-      <c r="D96">
-        <v>8</v>
-      </c>
+      <c r="D96" t="n">
+        <v>8</v>
+      </c>
+      <c r="E96" t="s"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
@@ -2142,7 +2205,8 @@
       <c r="C97" t="s">
         <v>17</v>
       </c>
-      <c r="E97">
+      <c r="D97" t="s"/>
+      <c r="E97" t="n">
         <v>600</v>
       </c>
     </row>
@@ -2156,9 +2220,10 @@
       <c r="C98" t="s">
         <v>7</v>
       </c>
-      <c r="D98">
-        <v>8</v>
-      </c>
+      <c r="D98" t="n">
+        <v>8</v>
+      </c>
+      <c r="E98" t="s"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
@@ -2170,9 +2235,10 @@
       <c r="C99" t="s">
         <v>14</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="n">
         <v>16</v>
       </c>
+      <c r="E99" t="s"/>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
@@ -2184,9 +2250,10 @@
       <c r="C100" t="s">
         <v>7</v>
       </c>
-      <c r="D100">
-        <v>8</v>
-      </c>
+      <c r="D100" t="n">
+        <v>8</v>
+      </c>
+      <c r="E100" t="s"/>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
@@ -2198,9 +2265,10 @@
       <c r="C101" t="s">
         <v>7</v>
       </c>
-      <c r="D101">
-        <v>8</v>
-      </c>
+      <c r="D101" t="n">
+        <v>8</v>
+      </c>
+      <c r="E101" t="s"/>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
@@ -2212,9 +2280,10 @@
       <c r="C102" t="s">
         <v>14</v>
       </c>
-      <c r="D102">
+      <c r="D102" t="n">
         <v>16</v>
       </c>
+      <c r="E102" t="s"/>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
@@ -2226,9 +2295,10 @@
       <c r="C103" t="s">
         <v>7</v>
       </c>
-      <c r="D103">
-        <v>8</v>
-      </c>
+      <c r="D103" t="n">
+        <v>8</v>
+      </c>
+      <c r="E103" t="s"/>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
@@ -2240,10 +2310,10 @@
       <c r="C104" t="s">
         <v>9</v>
       </c>
-      <c r="D104">
+      <c r="D104" t="n">
         <v>59</v>
       </c>
-      <c r="E104">
+      <c r="E104" t="n">
         <v>955</v>
       </c>
     </row>
@@ -2257,10 +2327,10 @@
       <c r="C105" t="s">
         <v>9</v>
       </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-      <c r="E105">
+      <c r="D105" t="n">
+        <v>1</v>
+      </c>
+      <c r="E105" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2274,10 +2344,10 @@
       <c r="C106" t="s">
         <v>9</v>
       </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-      <c r="E106">
+      <c r="D106" t="n">
+        <v>1</v>
+      </c>
+      <c r="E106" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2291,10 +2361,10 @@
       <c r="C107" t="s">
         <v>9</v>
       </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-      <c r="E107">
+      <c r="D107" t="n">
+        <v>1</v>
+      </c>
+      <c r="E107" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2308,9 +2378,10 @@
       <c r="C108" t="s">
         <v>7</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" t="n">
         <v>17</v>
       </c>
+      <c r="E108" t="s"/>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
@@ -2322,9 +2393,10 @@
       <c r="C109" t="s">
         <v>14</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" t="n">
         <v>17</v>
       </c>
+      <c r="E109" t="s"/>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
@@ -2336,9 +2408,10 @@
       <c r="C110" t="s">
         <v>7</v>
       </c>
-      <c r="D110">
-        <v>8</v>
-      </c>
+      <c r="D110" t="n">
+        <v>8</v>
+      </c>
+      <c r="E110" t="s"/>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
@@ -2350,7 +2423,8 @@
       <c r="C111" t="s">
         <v>17</v>
       </c>
-      <c r="E111">
+      <c r="D111" t="s"/>
+      <c r="E111" t="n">
         <v>560</v>
       </c>
     </row>
@@ -2364,9 +2438,10 @@
       <c r="C112" t="s">
         <v>7</v>
       </c>
-      <c r="D112">
-        <v>8</v>
-      </c>
+      <c r="D112" t="n">
+        <v>8</v>
+      </c>
+      <c r="E112" t="s"/>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
@@ -2378,9 +2453,10 @@
       <c r="C113" t="s">
         <v>14</v>
       </c>
-      <c r="D113">
+      <c r="D113" t="n">
         <v>16</v>
       </c>
+      <c r="E113" t="s"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
@@ -2392,9 +2468,10 @@
       <c r="C114" t="s">
         <v>7</v>
       </c>
-      <c r="D114">
-        <v>8</v>
-      </c>
+      <c r="D114" t="n">
+        <v>8</v>
+      </c>
+      <c r="E114" t="s"/>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
@@ -2406,9 +2483,10 @@
       <c r="C115" t="s">
         <v>7</v>
       </c>
-      <c r="D115">
-        <v>8</v>
-      </c>
+      <c r="D115" t="n">
+        <v>8</v>
+      </c>
+      <c r="E115" t="s"/>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
@@ -2420,10 +2498,10 @@
       <c r="C116" t="s">
         <v>9</v>
       </c>
-      <c r="D116">
+      <c r="D116" t="n">
         <v>60</v>
       </c>
-      <c r="E116">
+      <c r="E116" t="n">
         <v>911</v>
       </c>
     </row>
@@ -2437,10 +2515,10 @@
       <c r="C117" t="s">
         <v>9</v>
       </c>
-      <c r="D117">
-        <v>1</v>
-      </c>
-      <c r="E117">
+      <c r="D117" t="n">
+        <v>1</v>
+      </c>
+      <c r="E117" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2454,10 +2532,10 @@
       <c r="C118" t="s">
         <v>9</v>
       </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-      <c r="E118">
+      <c r="D118" t="n">
+        <v>1</v>
+      </c>
+      <c r="E118" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2471,10 +2549,10 @@
       <c r="C119" t="s">
         <v>9</v>
       </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
-      <c r="E119">
+      <c r="D119" t="n">
+        <v>1</v>
+      </c>
+      <c r="E119" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2488,9 +2566,10 @@
       <c r="C120" t="s">
         <v>7</v>
       </c>
-      <c r="D120">
-        <v>8</v>
-      </c>
+      <c r="D120" t="n">
+        <v>8</v>
+      </c>
+      <c r="E120" t="s"/>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
@@ -2502,9 +2581,10 @@
       <c r="C121" t="s">
         <v>7</v>
       </c>
-      <c r="D121">
-        <v>8</v>
-      </c>
+      <c r="D121" t="n">
+        <v>8</v>
+      </c>
+      <c r="E121" t="s"/>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
@@ -2516,9 +2596,10 @@
       <c r="C122" t="s">
         <v>14</v>
       </c>
-      <c r="D122">
+      <c r="D122" t="n">
         <v>16</v>
       </c>
+      <c r="E122" t="s"/>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
@@ -2530,9 +2611,10 @@
       <c r="C123" t="s">
         <v>7</v>
       </c>
-      <c r="D123">
-        <v>8</v>
-      </c>
+      <c r="D123" t="n">
+        <v>8</v>
+      </c>
+      <c r="E123" t="s"/>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
@@ -2544,8 +2626,9 @@
       <c r="C124" t="s">
         <v>17</v>
       </c>
-      <c r="E124">
-        <v>520</v>
+      <c r="D124" t="s"/>
+      <c r="E124" t="n">
+        <v>680</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2558,9 +2641,10 @@
       <c r="C125" t="s">
         <v>7</v>
       </c>
-      <c r="D125">
-        <v>8</v>
-      </c>
+      <c r="D125" t="n">
+        <v>8</v>
+      </c>
+      <c r="E125" t="s"/>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
@@ -2572,9 +2656,10 @@
       <c r="C126" t="s">
         <v>14</v>
       </c>
-      <c r="D126">
+      <c r="D126" t="n">
         <v>16</v>
       </c>
+      <c r="E126" t="s"/>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
@@ -2586,9 +2671,10 @@
       <c r="C127" t="s">
         <v>7</v>
       </c>
-      <c r="D127">
-        <v>8</v>
-      </c>
+      <c r="D127" t="n">
+        <v>8</v>
+      </c>
+      <c r="E127" t="s"/>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
@@ -2600,9 +2686,10 @@
       <c r="C128" t="s">
         <v>7</v>
       </c>
-      <c r="D128">
-        <v>8</v>
-      </c>
+      <c r="D128" t="n">
+        <v>8</v>
+      </c>
+      <c r="E128" t="s"/>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
@@ -2614,9 +2701,10 @@
       <c r="C129" t="s">
         <v>14</v>
       </c>
-      <c r="D129">
+      <c r="D129" t="n">
         <v>16</v>
       </c>
+      <c r="E129" t="s"/>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
@@ -2628,9 +2716,10 @@
       <c r="C130" t="s">
         <v>7</v>
       </c>
-      <c r="D130">
-        <v>8</v>
-      </c>
+      <c r="D130" t="n">
+        <v>8</v>
+      </c>
+      <c r="E130" t="s"/>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
@@ -2642,10 +2731,10 @@
       <c r="C131" t="s">
         <v>9</v>
       </c>
-      <c r="D131">
+      <c r="D131" t="n">
         <v>60</v>
       </c>
-      <c r="E131">
+      <c r="E131" t="n">
         <v>1083</v>
       </c>
     </row>
@@ -2659,10 +2748,10 @@
       <c r="C132" t="s">
         <v>9</v>
       </c>
-      <c r="D132">
-        <v>1</v>
-      </c>
-      <c r="E132">
+      <c r="D132" t="n">
+        <v>1</v>
+      </c>
+      <c r="E132" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2676,10 +2765,10 @@
       <c r="C133" t="s">
         <v>9</v>
       </c>
-      <c r="D133">
-        <v>1</v>
-      </c>
-      <c r="E133">
+      <c r="D133" t="n">
+        <v>1</v>
+      </c>
+      <c r="E133" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2693,10 +2782,10 @@
       <c r="C134" t="s">
         <v>9</v>
       </c>
-      <c r="D134">
-        <v>1</v>
-      </c>
-      <c r="E134">
+      <c r="D134" t="n">
+        <v>1</v>
+      </c>
+      <c r="E134" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2710,9 +2799,10 @@
       <c r="C135" t="s">
         <v>7</v>
       </c>
-      <c r="D135">
-        <v>8</v>
-      </c>
+      <c r="D135" t="n">
+        <v>8</v>
+      </c>
+      <c r="E135" t="s"/>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
@@ -2724,9 +2814,10 @@
       <c r="C136" t="s">
         <v>7</v>
       </c>
-      <c r="D136">
-        <v>8</v>
-      </c>
+      <c r="D136" t="n">
+        <v>8</v>
+      </c>
+      <c r="E136" t="s"/>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
@@ -2738,9 +2829,10 @@
       <c r="C137" t="s">
         <v>14</v>
       </c>
-      <c r="D137">
+      <c r="D137" t="n">
         <v>16</v>
       </c>
+      <c r="E137" t="s"/>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
@@ -2752,9 +2844,10 @@
       <c r="C138" t="s">
         <v>7</v>
       </c>
-      <c r="D138">
-        <v>8</v>
-      </c>
+      <c r="D138" t="n">
+        <v>8</v>
+      </c>
+      <c r="E138" t="s"/>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
@@ -2766,7 +2859,8 @@
       <c r="C139" t="s">
         <v>17</v>
       </c>
-      <c r="E139">
+      <c r="D139" t="s"/>
+      <c r="E139" t="n">
         <v>580</v>
       </c>
     </row>
@@ -2780,9 +2874,10 @@
       <c r="C140" t="s">
         <v>7</v>
       </c>
-      <c r="D140">
-        <v>8</v>
-      </c>
+      <c r="D140" t="n">
+        <v>8</v>
+      </c>
+      <c r="E140" t="s"/>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
@@ -2794,9 +2889,10 @@
       <c r="C141" t="s">
         <v>14</v>
       </c>
-      <c r="D141">
+      <c r="D141" t="n">
         <v>16</v>
       </c>
+      <c r="E141" t="s"/>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
@@ -2808,9 +2904,10 @@
       <c r="C142" t="s">
         <v>7</v>
       </c>
-      <c r="D142">
-        <v>8</v>
-      </c>
+      <c r="D142" t="n">
+        <v>8</v>
+      </c>
+      <c r="E142" t="s"/>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
@@ -2822,9 +2919,10 @@
       <c r="C143" t="s">
         <v>7</v>
       </c>
-      <c r="D143" s="2">
-        <v>9</v>
-      </c>
+      <c r="D143" t="n">
+        <v>9</v>
+      </c>
+      <c r="E143" t="s"/>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
@@ -2836,9 +2934,10 @@
       <c r="C144" t="s">
         <v>14</v>
       </c>
-      <c r="D144">
+      <c r="D144" t="n">
         <v>16</v>
       </c>
+      <c r="E144" t="s"/>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
@@ -2850,9 +2949,10 @@
       <c r="C145" t="s">
         <v>7</v>
       </c>
-      <c r="D145">
-        <v>8</v>
-      </c>
+      <c r="D145" t="n">
+        <v>8</v>
+      </c>
+      <c r="E145" t="s"/>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
@@ -2864,10 +2964,10 @@
       <c r="C146" t="s">
         <v>9</v>
       </c>
-      <c r="D146">
+      <c r="D146" t="n">
         <v>60</v>
       </c>
-      <c r="E146">
+      <c r="E146" t="n">
         <v>938</v>
       </c>
     </row>
@@ -2881,10 +2981,10 @@
       <c r="C147" t="s">
         <v>9</v>
       </c>
-      <c r="D147">
-        <v>1</v>
-      </c>
-      <c r="E147">
+      <c r="D147" t="n">
+        <v>1</v>
+      </c>
+      <c r="E147" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2898,10 +2998,10 @@
       <c r="C148" t="s">
         <v>9</v>
       </c>
-      <c r="D148">
-        <v>1</v>
-      </c>
-      <c r="E148">
+      <c r="D148" t="n">
+        <v>1</v>
+      </c>
+      <c r="E148" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2915,10 +3015,10 @@
       <c r="C149" t="s">
         <v>9</v>
       </c>
-      <c r="D149">
-        <v>1</v>
-      </c>
-      <c r="E149">
+      <c r="D149" t="n">
+        <v>1</v>
+      </c>
+      <c r="E149" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2932,9 +3032,10 @@
       <c r="C150" t="s">
         <v>7</v>
       </c>
-      <c r="D150">
-        <v>8</v>
-      </c>
+      <c r="D150" t="n">
+        <v>8</v>
+      </c>
+      <c r="E150" t="s"/>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
@@ -2946,9 +3047,10 @@
       <c r="C151" t="s">
         <v>7</v>
       </c>
-      <c r="D151">
-        <v>8</v>
-      </c>
+      <c r="D151" t="n">
+        <v>8</v>
+      </c>
+      <c r="E151" t="s"/>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
@@ -2960,9 +3062,10 @@
       <c r="C152" t="s">
         <v>14</v>
       </c>
-      <c r="D152">
+      <c r="D152" t="n">
         <v>16</v>
       </c>
+      <c r="E152" t="s"/>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
@@ -2974,9 +3077,10 @@
       <c r="C153" t="s">
         <v>7</v>
       </c>
-      <c r="D153">
-        <v>8</v>
-      </c>
+      <c r="D153" t="n">
+        <v>8</v>
+      </c>
+      <c r="E153" t="s"/>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
@@ -2988,7 +3092,8 @@
       <c r="C154" t="s">
         <v>17</v>
       </c>
-      <c r="E154">
+      <c r="D154" t="s"/>
+      <c r="E154" t="n">
         <v>600</v>
       </c>
     </row>
@@ -3002,9 +3107,10 @@
       <c r="C155" t="s">
         <v>7</v>
       </c>
-      <c r="D155">
-        <v>8</v>
-      </c>
+      <c r="D155" t="n">
+        <v>8</v>
+      </c>
+      <c r="E155" t="s"/>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
@@ -3016,9 +3122,10 @@
       <c r="C156" t="s">
         <v>14</v>
       </c>
-      <c r="D156">
+      <c r="D156" t="n">
         <v>16</v>
       </c>
+      <c r="E156" t="s"/>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
@@ -3030,9 +3137,10 @@
       <c r="C157" t="s">
         <v>7</v>
       </c>
-      <c r="D157">
-        <v>8</v>
-      </c>
+      <c r="D157" t="n">
+        <v>8</v>
+      </c>
+      <c r="E157" t="s"/>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
@@ -3044,9 +3152,10 @@
       <c r="C158" t="s">
         <v>7</v>
       </c>
-      <c r="D158">
-        <v>8</v>
-      </c>
+      <c r="D158" t="n">
+        <v>8</v>
+      </c>
+      <c r="E158" t="s"/>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
@@ -3058,9 +3167,10 @@
       <c r="C159" t="s">
         <v>14</v>
       </c>
-      <c r="D159">
+      <c r="D159" t="n">
         <v>16</v>
       </c>
+      <c r="E159" t="s"/>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
@@ -3072,9 +3182,10 @@
       <c r="C160" t="s">
         <v>7</v>
       </c>
-      <c r="D160">
-        <v>8</v>
-      </c>
+      <c r="D160" t="n">
+        <v>8</v>
+      </c>
+      <c r="E160" t="s"/>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
@@ -3086,9 +3197,10 @@
       <c r="C161" t="s">
         <v>7</v>
       </c>
-      <c r="D161">
-        <v>8</v>
-      </c>
+      <c r="D161" t="n">
+        <v>8</v>
+      </c>
+      <c r="E161" t="s"/>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
@@ -3100,10 +3212,10 @@
       <c r="C162" t="s">
         <v>9</v>
       </c>
-      <c r="D162">
+      <c r="D162" t="n">
         <v>60</v>
       </c>
-      <c r="E162">
+      <c r="E162" t="n">
         <v>904</v>
       </c>
     </row>
@@ -3117,10 +3229,10 @@
       <c r="C163" t="s">
         <v>9</v>
       </c>
-      <c r="D163">
-        <v>1</v>
-      </c>
-      <c r="E163">
+      <c r="D163" t="n">
+        <v>1</v>
+      </c>
+      <c r="E163" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3134,10 +3246,10 @@
       <c r="C164" t="s">
         <v>9</v>
       </c>
-      <c r="D164">
-        <v>1</v>
-      </c>
-      <c r="E164">
+      <c r="D164" t="n">
+        <v>1</v>
+      </c>
+      <c r="E164" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3151,10 +3263,10 @@
       <c r="C165" t="s">
         <v>9</v>
       </c>
-      <c r="D165">
-        <v>1</v>
-      </c>
-      <c r="E165">
+      <c r="D165" t="n">
+        <v>1</v>
+      </c>
+      <c r="E165" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3168,9 +3280,10 @@
       <c r="C166" t="s">
         <v>7</v>
       </c>
-      <c r="D166">
-        <v>8</v>
-      </c>
+      <c r="D166" t="n">
+        <v>8</v>
+      </c>
+      <c r="E166" t="s"/>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
@@ -3182,9 +3295,10 @@
       <c r="C167" t="s">
         <v>7</v>
       </c>
-      <c r="D167">
-        <v>8</v>
-      </c>
+      <c r="D167" t="n">
+        <v>8</v>
+      </c>
+      <c r="E167" t="s"/>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
@@ -3196,9 +3310,10 @@
       <c r="C168" t="s">
         <v>14</v>
       </c>
-      <c r="D168">
+      <c r="D168" t="n">
         <v>16</v>
       </c>
+      <c r="E168" t="s"/>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
@@ -3210,9 +3325,10 @@
       <c r="C169" t="s">
         <v>7</v>
       </c>
-      <c r="D169">
-        <v>8</v>
-      </c>
+      <c r="D169" t="n">
+        <v>8</v>
+      </c>
+      <c r="E169" t="s"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
@@ -3224,7 +3340,8 @@
       <c r="C170" t="s">
         <v>17</v>
       </c>
-      <c r="E170">
+      <c r="D170" t="s"/>
+      <c r="E170" t="n">
         <v>600</v>
       </c>
     </row>
@@ -3238,9 +3355,10 @@
       <c r="C171" t="s">
         <v>7</v>
       </c>
-      <c r="D171">
-        <v>8</v>
-      </c>
+      <c r="D171" t="n">
+        <v>8</v>
+      </c>
+      <c r="E171" t="s"/>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
@@ -3252,9 +3370,10 @@
       <c r="C172" t="s">
         <v>14</v>
       </c>
-      <c r="D172">
+      <c r="D172" t="n">
         <v>16</v>
       </c>
+      <c r="E172" t="s"/>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
@@ -3266,9 +3385,10 @@
       <c r="C173" t="s">
         <v>7</v>
       </c>
-      <c r="D173" s="2">
-        <v>9</v>
-      </c>
+      <c r="D173" t="n">
+        <v>9</v>
+      </c>
+      <c r="E173" t="s"/>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
@@ -3280,7 +3400,8 @@
       <c r="C174" t="s">
         <v>17</v>
       </c>
-      <c r="E174">
+      <c r="D174" t="s"/>
+      <c r="E174" t="n">
         <v>595</v>
       </c>
     </row>
@@ -3294,9 +3415,10 @@
       <c r="C175" t="s">
         <v>14</v>
       </c>
-      <c r="D175">
+      <c r="D175" t="n">
         <v>16</v>
       </c>
+      <c r="E175" t="s"/>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
@@ -3308,9 +3430,10 @@
       <c r="C176" t="s">
         <v>7</v>
       </c>
-      <c r="D176">
-        <v>8</v>
-      </c>
+      <c r="D176" t="n">
+        <v>8</v>
+      </c>
+      <c r="E176" t="s"/>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
@@ -3322,9 +3445,10 @@
       <c r="C177" t="s">
         <v>7</v>
       </c>
-      <c r="D177">
-        <v>8</v>
-      </c>
+      <c r="D177" t="n">
+        <v>8</v>
+      </c>
+      <c r="E177" t="s"/>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
@@ -3336,10 +3460,10 @@
       <c r="C178" t="s">
         <v>9</v>
       </c>
-      <c r="D178">
+      <c r="D178" t="n">
         <v>60</v>
       </c>
-      <c r="E178">
+      <c r="E178" t="n">
         <v>915</v>
       </c>
     </row>
@@ -3353,10 +3477,10 @@
       <c r="C179" t="s">
         <v>9</v>
       </c>
-      <c r="D179">
-        <v>1</v>
-      </c>
-      <c r="E179">
+      <c r="D179" t="n">
+        <v>1</v>
+      </c>
+      <c r="E179" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3370,10 +3494,10 @@
       <c r="C180" t="s">
         <v>9</v>
       </c>
-      <c r="D180">
-        <v>1</v>
-      </c>
-      <c r="E180">
+      <c r="D180" t="n">
+        <v>1</v>
+      </c>
+      <c r="E180" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3387,10 +3511,10 @@
       <c r="C181" t="s">
         <v>9</v>
       </c>
-      <c r="D181">
-        <v>1</v>
-      </c>
-      <c r="E181">
+      <c r="D181" t="n">
+        <v>1</v>
+      </c>
+      <c r="E181" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3404,9 +3528,10 @@
       <c r="C182" t="s">
         <v>7</v>
       </c>
-      <c r="D182">
-        <v>8</v>
-      </c>
+      <c r="D182" t="n">
+        <v>8</v>
+      </c>
+      <c r="E182" t="s"/>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
@@ -3418,9 +3543,10 @@
       <c r="C183" t="s">
         <v>7</v>
       </c>
-      <c r="D183">
-        <v>8</v>
-      </c>
+      <c r="D183" t="n">
+        <v>8</v>
+      </c>
+      <c r="E183" t="s"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
@@ -3432,9 +3558,10 @@
       <c r="C184" t="s">
         <v>14</v>
       </c>
-      <c r="D184">
+      <c r="D184" t="n">
         <v>16</v>
       </c>
+      <c r="E184" t="s"/>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
@@ -3446,9 +3573,10 @@
       <c r="C185" t="s">
         <v>7</v>
       </c>
-      <c r="D185">
-        <v>8</v>
-      </c>
+      <c r="D185" t="n">
+        <v>8</v>
+      </c>
+      <c r="E185" t="s"/>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
@@ -3460,7 +3588,8 @@
       <c r="C186" t="s">
         <v>17</v>
       </c>
-      <c r="E186">
+      <c r="D186" t="s"/>
+      <c r="E186" t="n">
         <v>600</v>
       </c>
     </row>
@@ -3474,9 +3603,10 @@
       <c r="C187" t="s">
         <v>7</v>
       </c>
-      <c r="D187">
-        <v>8</v>
-      </c>
+      <c r="D187" t="n">
+        <v>8</v>
+      </c>
+      <c r="E187" t="s"/>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
@@ -3488,9 +3618,10 @@
       <c r="C188" t="s">
         <v>14</v>
       </c>
-      <c r="D188">
+      <c r="D188" t="n">
         <v>16</v>
       </c>
+      <c r="E188" t="s"/>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
@@ -3502,9 +3633,10 @@
       <c r="C189" t="s">
         <v>7</v>
       </c>
-      <c r="D189">
-        <v>8</v>
-      </c>
+      <c r="D189" t="n">
+        <v>8</v>
+      </c>
+      <c r="E189" t="s"/>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
@@ -3516,9 +3648,10 @@
       <c r="C190" t="s">
         <v>7</v>
       </c>
-      <c r="D190">
-        <v>8</v>
-      </c>
+      <c r="D190" t="n">
+        <v>8</v>
+      </c>
+      <c r="E190" t="s"/>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
@@ -3530,9 +3663,10 @@
       <c r="C191" t="s">
         <v>14</v>
       </c>
-      <c r="D191">
+      <c r="D191" t="n">
         <v>16</v>
       </c>
+      <c r="E191" t="s"/>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
@@ -3544,9 +3678,10 @@
       <c r="C192" t="s">
         <v>7</v>
       </c>
-      <c r="D192">
-        <v>8</v>
-      </c>
+      <c r="D192" t="n">
+        <v>8</v>
+      </c>
+      <c r="E192" t="s"/>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
@@ -3558,10 +3693,10 @@
       <c r="C193" t="s">
         <v>9</v>
       </c>
-      <c r="D193">
+      <c r="D193" t="n">
         <v>60</v>
       </c>
-      <c r="E193">
+      <c r="E193" t="n">
         <v>1060</v>
       </c>
     </row>
@@ -3575,10 +3710,10 @@
       <c r="C194" t="s">
         <v>9</v>
       </c>
-      <c r="D194">
-        <v>1</v>
-      </c>
-      <c r="E194">
+      <c r="D194" t="n">
+        <v>1</v>
+      </c>
+      <c r="E194" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3592,10 +3727,10 @@
       <c r="C195" t="s">
         <v>9</v>
       </c>
-      <c r="D195">
-        <v>1</v>
-      </c>
-      <c r="E195">
+      <c r="D195" t="n">
+        <v>1</v>
+      </c>
+      <c r="E195" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3609,10 +3744,10 @@
       <c r="C196" t="s">
         <v>9</v>
       </c>
-      <c r="D196">
-        <v>1</v>
-      </c>
-      <c r="E196">
+      <c r="D196" t="n">
+        <v>1</v>
+      </c>
+      <c r="E196" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3626,9 +3761,10 @@
       <c r="C197" t="s">
         <v>7</v>
       </c>
-      <c r="D197">
-        <v>8</v>
-      </c>
+      <c r="D197" t="n">
+        <v>8</v>
+      </c>
+      <c r="E197" t="s"/>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
@@ -3640,9 +3776,10 @@
       <c r="C198" t="s">
         <v>7</v>
       </c>
-      <c r="D198">
-        <v>8</v>
-      </c>
+      <c r="D198" t="n">
+        <v>8</v>
+      </c>
+      <c r="E198" t="s"/>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
@@ -3654,9 +3791,10 @@
       <c r="C199" t="s">
         <v>14</v>
       </c>
-      <c r="D199">
+      <c r="D199" t="n">
         <v>16</v>
       </c>
+      <c r="E199" t="s"/>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
@@ -3668,9 +3806,10 @@
       <c r="C200" t="s">
         <v>7</v>
       </c>
-      <c r="D200">
-        <v>8</v>
-      </c>
+      <c r="D200" t="n">
+        <v>8</v>
+      </c>
+      <c r="E200" t="s"/>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
@@ -3682,7 +3821,8 @@
       <c r="C201" t="s">
         <v>17</v>
       </c>
-      <c r="E201">
+      <c r="D201" t="s"/>
+      <c r="E201" t="n">
         <v>600</v>
       </c>
     </row>
@@ -3696,9 +3836,10 @@
       <c r="C202" t="s">
         <v>7</v>
       </c>
-      <c r="D202">
-        <v>8</v>
-      </c>
+      <c r="D202" t="n">
+        <v>8</v>
+      </c>
+      <c r="E202" t="s"/>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
@@ -3710,9 +3851,10 @@
       <c r="C203" t="s">
         <v>14</v>
       </c>
-      <c r="D203">
+      <c r="D203" t="n">
         <v>16</v>
       </c>
+      <c r="E203" t="s"/>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
@@ -3724,9 +3866,10 @@
       <c r="C204" t="s">
         <v>14</v>
       </c>
-      <c r="D204" s="2">
+      <c r="D204" t="n">
         <v>17</v>
       </c>
+      <c r="E204" t="s"/>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
@@ -3738,9 +3881,10 @@
       <c r="C205" t="s">
         <v>7</v>
       </c>
-      <c r="D205">
-        <v>8</v>
-      </c>
+      <c r="D205" t="n">
+        <v>8</v>
+      </c>
+      <c r="E205" t="s"/>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
@@ -3752,9 +3896,10 @@
       <c r="C206" t="s">
         <v>7</v>
       </c>
-      <c r="D206">
-        <v>8</v>
-      </c>
+      <c r="D206" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" t="s"/>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
@@ -3766,10 +3911,10 @@
       <c r="C207" t="s">
         <v>9</v>
       </c>
-      <c r="D207">
+      <c r="D207" t="n">
         <v>60</v>
       </c>
-      <c r="E207">
+      <c r="E207" t="n">
         <v>961</v>
       </c>
     </row>
@@ -3783,10 +3928,10 @@
       <c r="C208" t="s">
         <v>9</v>
       </c>
-      <c r="D208">
-        <v>1</v>
-      </c>
-      <c r="E208">
+      <c r="D208" t="n">
+        <v>1</v>
+      </c>
+      <c r="E208" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3800,10 +3945,10 @@
       <c r="C209" t="s">
         <v>9</v>
       </c>
-      <c r="D209">
-        <v>1</v>
-      </c>
-      <c r="E209">
+      <c r="D209" t="n">
+        <v>1</v>
+      </c>
+      <c r="E209" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3817,10 +3962,10 @@
       <c r="C210" t="s">
         <v>9</v>
       </c>
-      <c r="D210">
-        <v>1</v>
-      </c>
-      <c r="E210">
+      <c r="D210" t="n">
+        <v>1</v>
+      </c>
+      <c r="E210" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3834,9 +3979,10 @@
       <c r="C211" t="s">
         <v>7</v>
       </c>
-      <c r="D211">
-        <v>8</v>
-      </c>
+      <c r="D211" t="n">
+        <v>8</v>
+      </c>
+      <c r="E211" t="s"/>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
@@ -3848,9 +3994,10 @@
       <c r="C212" t="s">
         <v>7</v>
       </c>
-      <c r="D212">
-        <v>8</v>
-      </c>
+      <c r="D212" t="n">
+        <v>8</v>
+      </c>
+      <c r="E212" t="s"/>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
@@ -3862,9 +4009,10 @@
       <c r="C213" t="s">
         <v>14</v>
       </c>
-      <c r="D213">
+      <c r="D213" t="n">
         <v>16</v>
       </c>
+      <c r="E213" t="s"/>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
@@ -3876,9 +4024,10 @@
       <c r="C214" t="s">
         <v>7</v>
       </c>
-      <c r="D214">
-        <v>8</v>
-      </c>
+      <c r="D214" t="n">
+        <v>8</v>
+      </c>
+      <c r="E214" t="s"/>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
@@ -3890,8 +4039,9 @@
       <c r="C215" t="s">
         <v>17</v>
       </c>
-      <c r="E215">
-        <v>560</v>
+      <c r="D215" t="s"/>
+      <c r="E215" t="n">
+        <v>720</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -3904,9 +4054,10 @@
       <c r="C216" t="s">
         <v>7</v>
       </c>
-      <c r="D216">
-        <v>8</v>
-      </c>
+      <c r="D216" t="n">
+        <v>8</v>
+      </c>
+      <c r="E216" t="s"/>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
@@ -3918,9 +4069,10 @@
       <c r="C217" t="s">
         <v>14</v>
       </c>
-      <c r="D217">
+      <c r="D217" t="n">
         <v>16</v>
       </c>
+      <c r="E217" t="s"/>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
@@ -3932,9 +4084,10 @@
       <c r="C218" t="s">
         <v>7</v>
       </c>
-      <c r="D218">
-        <v>8</v>
-      </c>
+      <c r="D218" t="n">
+        <v>8</v>
+      </c>
+      <c r="E218" t="s"/>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
@@ -3946,9 +4099,10 @@
       <c r="C219" t="s">
         <v>7</v>
       </c>
-      <c r="D219">
-        <v>8</v>
-      </c>
+      <c r="D219" t="n">
+        <v>8</v>
+      </c>
+      <c r="E219" t="s"/>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
@@ -3960,9 +4114,10 @@
       <c r="C220" t="s">
         <v>14</v>
       </c>
-      <c r="D220">
+      <c r="D220" t="n">
         <v>16</v>
       </c>
+      <c r="E220" t="s"/>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
@@ -3974,9 +4129,10 @@
       <c r="C221" t="s">
         <v>7</v>
       </c>
-      <c r="D221">
-        <v>8</v>
-      </c>
+      <c r="D221" t="n">
+        <v>8</v>
+      </c>
+      <c r="E221" t="s"/>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
@@ -3988,7 +4144,8 @@
       <c r="C222" t="s">
         <v>17</v>
       </c>
-      <c r="E222">
+      <c r="D222" t="s"/>
+      <c r="E222" t="n">
         <v>600</v>
       </c>
     </row>
@@ -4002,9 +4159,10 @@
       <c r="C223" t="s">
         <v>7</v>
       </c>
-      <c r="D223">
-        <v>8</v>
-      </c>
+      <c r="D223" t="n">
+        <v>8</v>
+      </c>
+      <c r="E223" t="s"/>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
@@ -4016,9 +4174,10 @@
       <c r="C224" t="s">
         <v>14</v>
       </c>
-      <c r="D224">
+      <c r="D224" t="n">
         <v>16</v>
       </c>
+      <c r="E224" t="s"/>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
@@ -4030,9 +4189,10 @@
       <c r="C225" t="s">
         <v>7</v>
       </c>
-      <c r="D225">
-        <v>8</v>
-      </c>
+      <c r="D225" t="n">
+        <v>8</v>
+      </c>
+      <c r="E225" t="s"/>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
@@ -4044,10 +4204,10 @@
       <c r="C226" t="s">
         <v>9</v>
       </c>
-      <c r="D226">
+      <c r="D226" t="n">
         <v>60</v>
       </c>
-      <c r="E226">
+      <c r="E226" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -4061,10 +4221,10 @@
       <c r="C227" t="s">
         <v>9</v>
       </c>
-      <c r="D227">
-        <v>1</v>
-      </c>
-      <c r="E227">
+      <c r="D227" t="n">
+        <v>1</v>
+      </c>
+      <c r="E227" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4078,10 +4238,10 @@
       <c r="C228" t="s">
         <v>9</v>
       </c>
-      <c r="D228">
-        <v>1</v>
-      </c>
-      <c r="E228">
+      <c r="D228" t="n">
+        <v>1</v>
+      </c>
+      <c r="E228" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4095,10 +4255,10 @@
       <c r="C229" t="s">
         <v>9</v>
       </c>
-      <c r="D229">
-        <v>1</v>
-      </c>
-      <c r="E229">
+      <c r="D229" t="n">
+        <v>1</v>
+      </c>
+      <c r="E229" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4112,9 +4272,10 @@
       <c r="C230" t="s">
         <v>7</v>
       </c>
-      <c r="D230">
-        <v>8</v>
-      </c>
+      <c r="D230" t="n">
+        <v>8</v>
+      </c>
+      <c r="E230" t="s"/>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
@@ -4126,9 +4287,10 @@
       <c r="C231" t="s">
         <v>7</v>
       </c>
-      <c r="D231">
-        <v>8</v>
-      </c>
+      <c r="D231" t="n">
+        <v>8</v>
+      </c>
+      <c r="E231" t="s"/>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
@@ -4140,9 +4302,10 @@
       <c r="C232" t="s">
         <v>14</v>
       </c>
-      <c r="D232">
+      <c r="D232" t="n">
         <v>16</v>
       </c>
+      <c r="E232" t="s"/>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
@@ -4154,9 +4317,10 @@
       <c r="C233" t="s">
         <v>7</v>
       </c>
-      <c r="D233" s="2">
-        <v>9</v>
-      </c>
+      <c r="D233" t="n">
+        <v>9</v>
+      </c>
+      <c r="E233" t="s"/>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
@@ -4168,9 +4332,10 @@
       <c r="C234" t="s">
         <v>14</v>
       </c>
-      <c r="D234">
+      <c r="D234" t="n">
         <v>16</v>
       </c>
+      <c r="E234" t="s"/>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
@@ -4182,9 +4347,10 @@
       <c r="C235" t="s">
         <v>7</v>
       </c>
-      <c r="D235">
-        <v>8</v>
-      </c>
+      <c r="D235" t="n">
+        <v>8</v>
+      </c>
+      <c r="E235" t="s"/>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
@@ -4196,7 +4362,8 @@
       <c r="C236" t="s">
         <v>17</v>
       </c>
-      <c r="E236">
+      <c r="D236" t="s"/>
+      <c r="E236" t="n">
         <v>527</v>
       </c>
     </row>
@@ -4210,9 +4377,10 @@
       <c r="C237" t="s">
         <v>7</v>
       </c>
-      <c r="D237">
-        <v>8</v>
-      </c>
+      <c r="D237" t="n">
+        <v>8</v>
+      </c>
+      <c r="E237" t="s"/>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
@@ -4224,9 +4392,10 @@
       <c r="C238" t="s">
         <v>14</v>
       </c>
-      <c r="D238">
+      <c r="D238" t="n">
         <v>16</v>
       </c>
+      <c r="E238" t="s"/>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
@@ -4238,9 +4407,10 @@
       <c r="C239" t="s">
         <v>7</v>
       </c>
-      <c r="D239">
-        <v>8</v>
-      </c>
+      <c r="D239" t="n">
+        <v>8</v>
+      </c>
+      <c r="E239" t="s"/>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
@@ -4252,9 +4422,10 @@
       <c r="C240" t="s">
         <v>7</v>
       </c>
-      <c r="D240">
-        <v>8</v>
-      </c>
+      <c r="D240" t="n">
+        <v>8</v>
+      </c>
+      <c r="E240" t="s"/>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
@@ -4266,10 +4437,10 @@
       <c r="C241" t="s">
         <v>9</v>
       </c>
-      <c r="D241">
+      <c r="D241" t="n">
         <v>60</v>
       </c>
-      <c r="E241">
+      <c r="E241" t="n">
         <v>1027</v>
       </c>
     </row>
@@ -4283,10 +4454,10 @@
       <c r="C242" t="s">
         <v>9</v>
       </c>
-      <c r="D242">
-        <v>1</v>
-      </c>
-      <c r="E242">
+      <c r="D242" t="n">
+        <v>1</v>
+      </c>
+      <c r="E242" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4300,10 +4471,10 @@
       <c r="C243" t="s">
         <v>9</v>
       </c>
-      <c r="D243">
-        <v>1</v>
-      </c>
-      <c r="E243">
+      <c r="D243" t="n">
+        <v>1</v>
+      </c>
+      <c r="E243" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4317,10 +4488,10 @@
       <c r="C244" t="s">
         <v>9</v>
       </c>
-      <c r="D244">
-        <v>1</v>
-      </c>
-      <c r="E244">
+      <c r="D244" t="n">
+        <v>1</v>
+      </c>
+      <c r="E244" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4334,9 +4505,10 @@
       <c r="C245" t="s">
         <v>7</v>
       </c>
-      <c r="D245">
-        <v>8</v>
-      </c>
+      <c r="D245" t="n">
+        <v>8</v>
+      </c>
+      <c r="E245" t="s"/>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
@@ -4348,9 +4520,10 @@
       <c r="C246" t="s">
         <v>7</v>
       </c>
-      <c r="D246">
-        <v>8</v>
-      </c>
+      <c r="D246" t="n">
+        <v>8</v>
+      </c>
+      <c r="E246" t="s"/>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
@@ -4362,9 +4535,10 @@
       <c r="C247" t="s">
         <v>14</v>
       </c>
-      <c r="D247">
+      <c r="D247" t="n">
         <v>16</v>
       </c>
+      <c r="E247" t="s"/>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
@@ -4376,9 +4550,10 @@
       <c r="C248" t="s">
         <v>7</v>
       </c>
-      <c r="D248">
-        <v>8</v>
-      </c>
+      <c r="D248" t="n">
+        <v>8</v>
+      </c>
+      <c r="E248" t="s"/>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
@@ -4390,9 +4565,10 @@
       <c r="C249" t="s">
         <v>7</v>
       </c>
-      <c r="D249">
-        <v>8</v>
-      </c>
+      <c r="D249" t="n">
+        <v>8</v>
+      </c>
+      <c r="E249" t="s"/>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
@@ -4404,9 +4580,10 @@
       <c r="C250" t="s">
         <v>14</v>
       </c>
-      <c r="D250">
+      <c r="D250" t="n">
         <v>16</v>
       </c>
+      <c r="E250" t="s"/>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
@@ -4418,7 +4595,8 @@
       <c r="C251" t="s">
         <v>17</v>
       </c>
-      <c r="E251" s="2">
+      <c r="D251" t="s"/>
+      <c r="E251" t="n">
         <v>610</v>
       </c>
     </row>
@@ -4432,9 +4610,10 @@
       <c r="C252" t="s">
         <v>7</v>
       </c>
-      <c r="D252">
-        <v>8</v>
-      </c>
+      <c r="D252" t="n">
+        <v>8</v>
+      </c>
+      <c r="E252" t="s"/>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
@@ -4446,9 +4625,10 @@
       <c r="C253" t="s">
         <v>7</v>
       </c>
-      <c r="D253">
-        <v>8</v>
-      </c>
+      <c r="D253" t="n">
+        <v>8</v>
+      </c>
+      <c r="E253" t="s"/>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
@@ -4460,9 +4640,10 @@
       <c r="C254" t="s">
         <v>14</v>
       </c>
-      <c r="D254">
+      <c r="D254" t="n">
         <v>16</v>
       </c>
+      <c r="E254" t="s"/>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
@@ -4474,9 +4655,10 @@
       <c r="C255" t="s">
         <v>7</v>
       </c>
-      <c r="D255">
-        <v>8</v>
-      </c>
+      <c r="D255" t="n">
+        <v>8</v>
+      </c>
+      <c r="E255" t="s"/>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="s">
@@ -4488,10 +4670,10 @@
       <c r="C256" t="s">
         <v>9</v>
       </c>
-      <c r="D256">
+      <c r="D256" t="n">
         <v>60</v>
       </c>
-      <c r="E256">
+      <c r="E256" t="n">
         <v>1030</v>
       </c>
     </row>
@@ -4505,10 +4687,10 @@
       <c r="C257" t="s">
         <v>9</v>
       </c>
-      <c r="D257">
-        <v>1</v>
-      </c>
-      <c r="E257">
+      <c r="D257" t="n">
+        <v>1</v>
+      </c>
+      <c r="E257" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4522,10 +4704,10 @@
       <c r="C258" t="s">
         <v>9</v>
       </c>
-      <c r="D258">
-        <v>1</v>
-      </c>
-      <c r="E258">
+      <c r="D258" t="n">
+        <v>1</v>
+      </c>
+      <c r="E258" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4539,10 +4721,10 @@
       <c r="C259" t="s">
         <v>9</v>
       </c>
-      <c r="D259">
-        <v>1</v>
-      </c>
-      <c r="E259">
+      <c r="D259" t="n">
+        <v>1</v>
+      </c>
+      <c r="E259" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4556,9 +4738,10 @@
       <c r="C260" t="s">
         <v>7</v>
       </c>
-      <c r="D260">
-        <v>8</v>
-      </c>
+      <c r="D260" t="n">
+        <v>8</v>
+      </c>
+      <c r="E260" t="s"/>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
@@ -4570,9 +4753,10 @@
       <c r="C261" t="s">
         <v>7</v>
       </c>
-      <c r="D261">
-        <v>8</v>
-      </c>
+      <c r="D261" t="n">
+        <v>8</v>
+      </c>
+      <c r="E261" t="s"/>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
@@ -4584,9 +4768,10 @@
       <c r="C262" t="s">
         <v>14</v>
       </c>
-      <c r="D262">
+      <c r="D262" t="n">
         <v>16</v>
       </c>
+      <c r="E262" t="s"/>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
@@ -4598,9 +4783,10 @@
       <c r="C263" t="s">
         <v>7</v>
       </c>
-      <c r="D263">
-        <v>8</v>
-      </c>
+      <c r="D263" t="n">
+        <v>8</v>
+      </c>
+      <c r="E263" t="s"/>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
@@ -4612,9 +4798,10 @@
       <c r="C264" t="s">
         <v>7</v>
       </c>
-      <c r="D264">
-        <v>8</v>
-      </c>
+      <c r="D264" t="n">
+        <v>8</v>
+      </c>
+      <c r="E264" t="s"/>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
@@ -4626,9 +4813,10 @@
       <c r="C265" t="s">
         <v>14</v>
       </c>
-      <c r="D265">
+      <c r="D265" t="n">
         <v>16</v>
       </c>
+      <c r="E265" t="s"/>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="s">
@@ -4640,7 +4828,8 @@
       <c r="C266" t="s">
         <v>17</v>
       </c>
-      <c r="E266">
+      <c r="D266" t="s"/>
+      <c r="E266" t="n">
         <v>573</v>
       </c>
     </row>
@@ -4654,9 +4843,10 @@
       <c r="C267" t="s">
         <v>7</v>
       </c>
-      <c r="D267">
-        <v>8</v>
-      </c>
+      <c r="D267" t="n">
+        <v>8</v>
+      </c>
+      <c r="E267" t="s"/>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" t="s">
@@ -4668,9 +4858,10 @@
       <c r="C268" t="s">
         <v>7</v>
       </c>
-      <c r="D268">
-        <v>8</v>
-      </c>
+      <c r="D268" t="n">
+        <v>8</v>
+      </c>
+      <c r="E268" t="s"/>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
@@ -4682,9 +4873,10 @@
       <c r="C269" t="s">
         <v>14</v>
       </c>
-      <c r="D269">
+      <c r="D269" t="n">
         <v>16</v>
       </c>
+      <c r="E269" t="s"/>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="s">
@@ -4696,9 +4888,10 @@
       <c r="C270" t="s">
         <v>7</v>
       </c>
-      <c r="D270">
-        <v>8</v>
-      </c>
+      <c r="D270" t="n">
+        <v>8</v>
+      </c>
+      <c r="E270" t="s"/>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="s">
@@ -4710,10 +4903,10 @@
       <c r="C271" t="s">
         <v>9</v>
       </c>
-      <c r="D271">
+      <c r="D271" t="n">
         <v>60</v>
       </c>
-      <c r="E271">
+      <c r="E271" t="n">
         <v>1033</v>
       </c>
     </row>
@@ -4727,10 +4920,10 @@
       <c r="C272" t="s">
         <v>9</v>
       </c>
-      <c r="D272">
-        <v>1</v>
-      </c>
-      <c r="E272">
+      <c r="D272" t="n">
+        <v>1</v>
+      </c>
+      <c r="E272" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4744,10 +4937,10 @@
       <c r="C273" t="s">
         <v>9</v>
       </c>
-      <c r="D273">
-        <v>1</v>
-      </c>
-      <c r="E273">
+      <c r="D273" t="n">
+        <v>1</v>
+      </c>
+      <c r="E273" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4761,10 +4954,10 @@
       <c r="C274" t="s">
         <v>9</v>
       </c>
-      <c r="D274">
-        <v>1</v>
-      </c>
-      <c r="E274">
+      <c r="D274" t="n">
+        <v>1</v>
+      </c>
+      <c r="E274" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4778,9 +4971,10 @@
       <c r="C275" t="s">
         <v>7</v>
       </c>
-      <c r="D275">
-        <v>8</v>
-      </c>
+      <c r="D275" t="n">
+        <v>8</v>
+      </c>
+      <c r="E275" t="s"/>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" t="s">
@@ -4792,9 +4986,10 @@
       <c r="C276" t="s">
         <v>7</v>
       </c>
-      <c r="D276">
-        <v>8</v>
-      </c>
+      <c r="D276" t="n">
+        <v>8</v>
+      </c>
+      <c r="E276" t="s"/>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" t="s">
@@ -4806,9 +5001,10 @@
       <c r="C277" t="s">
         <v>14</v>
       </c>
-      <c r="D277">
+      <c r="D277" t="n">
         <v>16</v>
       </c>
+      <c r="E277" t="s"/>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" t="s">
@@ -4820,9 +5016,10 @@
       <c r="C278" t="s">
         <v>7</v>
       </c>
-      <c r="D278">
-        <v>8</v>
-      </c>
+      <c r="D278" t="n">
+        <v>8</v>
+      </c>
+      <c r="E278" t="s"/>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" t="s">
@@ -4834,9 +5031,10 @@
       <c r="C279" t="s">
         <v>7</v>
       </c>
-      <c r="D279">
-        <v>8</v>
-      </c>
+      <c r="D279" t="n">
+        <v>8</v>
+      </c>
+      <c r="E279" t="s"/>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" t="s">
@@ -4848,9 +5046,10 @@
       <c r="C280" t="s">
         <v>14</v>
       </c>
-      <c r="D280">
+      <c r="D280" t="n">
         <v>16</v>
       </c>
+      <c r="E280" t="s"/>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" t="s">
@@ -4862,7 +5061,8 @@
       <c r="C281" t="s">
         <v>17</v>
       </c>
-      <c r="E281">
+      <c r="D281" t="s"/>
+      <c r="E281" t="n">
         <v>591</v>
       </c>
     </row>
@@ -4876,9 +5076,10 @@
       <c r="C282" t="s">
         <v>7</v>
       </c>
-      <c r="D282">
-        <v>8</v>
-      </c>
+      <c r="D282" t="n">
+        <v>8</v>
+      </c>
+      <c r="E282" t="s"/>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" t="s">
@@ -4890,9 +5091,10 @@
       <c r="C283" t="s">
         <v>7</v>
       </c>
-      <c r="D283">
-        <v>8</v>
-      </c>
+      <c r="D283" t="n">
+        <v>8</v>
+      </c>
+      <c r="E283" t="s"/>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" t="s">
@@ -4904,9 +5106,10 @@
       <c r="C284" t="s">
         <v>14</v>
       </c>
-      <c r="D284">
+      <c r="D284" t="n">
         <v>16</v>
       </c>
+      <c r="E284" t="s"/>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" t="s">
@@ -4918,9 +5121,10 @@
       <c r="C285" t="s">
         <v>7</v>
       </c>
-      <c r="D285">
-        <v>8</v>
-      </c>
+      <c r="D285" t="n">
+        <v>8</v>
+      </c>
+      <c r="E285" t="s"/>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" t="s">
@@ -4932,10 +5136,10 @@
       <c r="C286" t="s">
         <v>9</v>
       </c>
-      <c r="D286" s="2">
+      <c r="D286" t="n">
         <v>59</v>
       </c>
-      <c r="E286">
+      <c r="E286" t="n">
         <v>1131</v>
       </c>
     </row>
@@ -4949,10 +5153,10 @@
       <c r="C287" t="s">
         <v>9</v>
       </c>
-      <c r="D287">
-        <v>1</v>
-      </c>
-      <c r="E287">
+      <c r="D287" t="n">
+        <v>1</v>
+      </c>
+      <c r="E287" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4966,10 +5170,10 @@
       <c r="C288" t="s">
         <v>9</v>
       </c>
-      <c r="D288">
-        <v>1</v>
-      </c>
-      <c r="E288">
+      <c r="D288" t="n">
+        <v>1</v>
+      </c>
+      <c r="E288" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4983,10 +5187,10 @@
       <c r="C289" t="s">
         <v>9</v>
       </c>
-      <c r="D289">
-        <v>1</v>
-      </c>
-      <c r="E289">
+      <c r="D289" t="n">
+        <v>1</v>
+      </c>
+      <c r="E289" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5000,9 +5204,10 @@
       <c r="C290" t="s">
         <v>7</v>
       </c>
-      <c r="D290" s="2">
-        <v>9</v>
-      </c>
+      <c r="D290" t="n">
+        <v>9</v>
+      </c>
+      <c r="E290" t="s"/>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" t="s">
@@ -5014,9 +5219,10 @@
       <c r="C291" t="s">
         <v>7</v>
       </c>
-      <c r="D291">
-        <v>8</v>
-      </c>
+      <c r="D291" t="n">
+        <v>8</v>
+      </c>
+      <c r="E291" t="s"/>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" t="s">
@@ -5028,9 +5234,10 @@
       <c r="C292" t="s">
         <v>14</v>
       </c>
-      <c r="D292" s="2">
+      <c r="D292" t="n">
         <v>17</v>
       </c>
+      <c r="E292" t="s"/>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" t="s">
@@ -5042,9 +5249,10 @@
       <c r="C293" t="s">
         <v>7</v>
       </c>
-      <c r="D293">
-        <v>8</v>
-      </c>
+      <c r="D293" t="n">
+        <v>8</v>
+      </c>
+      <c r="E293" t="s"/>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" t="s">
@@ -5056,9 +5264,10 @@
       <c r="C294" t="s">
         <v>7</v>
       </c>
-      <c r="D294">
-        <v>8</v>
-      </c>
+      <c r="D294" t="n">
+        <v>8</v>
+      </c>
+      <c r="E294" t="s"/>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" t="s">
@@ -5070,9 +5279,10 @@
       <c r="C295" t="s">
         <v>14</v>
       </c>
-      <c r="D295">
+      <c r="D295" t="n">
         <v>16</v>
       </c>
+      <c r="E295" t="s"/>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" t="s">
@@ -5084,7 +5294,8 @@
       <c r="C296" t="s">
         <v>17</v>
       </c>
-      <c r="E296">
+      <c r="D296" t="s"/>
+      <c r="E296" t="n">
         <v>566</v>
       </c>
     </row>
@@ -5098,9 +5309,10 @@
       <c r="C297" t="s">
         <v>7</v>
       </c>
-      <c r="D297">
-        <v>8</v>
-      </c>
+      <c r="D297" t="n">
+        <v>8</v>
+      </c>
+      <c r="E297" t="s"/>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" t="s">
@@ -5112,9 +5324,10 @@
       <c r="C298" t="s">
         <v>7</v>
       </c>
-      <c r="D298">
-        <v>8</v>
-      </c>
+      <c r="D298" t="n">
+        <v>8</v>
+      </c>
+      <c r="E298" t="s"/>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" t="s">
@@ -5126,9 +5339,10 @@
       <c r="C299" t="s">
         <v>14</v>
       </c>
-      <c r="D299">
+      <c r="D299" t="n">
         <v>16</v>
       </c>
+      <c r="E299" t="s"/>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" t="s">
@@ -5140,9 +5354,10 @@
       <c r="C300" t="s">
         <v>7</v>
       </c>
-      <c r="D300">
-        <v>8</v>
-      </c>
+      <c r="D300" t="n">
+        <v>8</v>
+      </c>
+      <c r="E300" t="s"/>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" t="s">
@@ -5154,10 +5369,10 @@
       <c r="C301" t="s">
         <v>9</v>
       </c>
-      <c r="D301" s="2">
+      <c r="D301" t="n">
         <v>59</v>
       </c>
-      <c r="E301">
+      <c r="E301" t="n">
         <v>1126</v>
       </c>
     </row>
@@ -5171,10 +5386,10 @@
       <c r="C302" t="s">
         <v>9</v>
       </c>
-      <c r="D302">
-        <v>1</v>
-      </c>
-      <c r="E302">
+      <c r="D302" t="n">
+        <v>1</v>
+      </c>
+      <c r="E302" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5188,10 +5403,10 @@
       <c r="C303" t="s">
         <v>9</v>
       </c>
-      <c r="D303">
-        <v>1</v>
-      </c>
-      <c r="E303">
+      <c r="D303" t="n">
+        <v>1</v>
+      </c>
+      <c r="E303" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5205,10 +5420,10 @@
       <c r="C304" t="s">
         <v>9</v>
       </c>
-      <c r="D304">
-        <v>1</v>
-      </c>
-      <c r="E304">
+      <c r="D304" t="n">
+        <v>1</v>
+      </c>
+      <c r="E304" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5222,9 +5437,10 @@
       <c r="C305" t="s">
         <v>7</v>
       </c>
-      <c r="D305" s="2">
-        <v>9</v>
-      </c>
+      <c r="D305" t="n">
+        <v>9</v>
+      </c>
+      <c r="E305" t="s"/>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" t="s">
@@ -5236,9 +5452,10 @@
       <c r="C306" t="s">
         <v>7</v>
       </c>
-      <c r="D306">
-        <v>8</v>
-      </c>
+      <c r="D306" t="n">
+        <v>8</v>
+      </c>
+      <c r="E306" t="s"/>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" t="s">
@@ -5250,9 +5467,10 @@
       <c r="C307" t="s">
         <v>14</v>
       </c>
-      <c r="D307" s="2">
+      <c r="D307" t="n">
         <v>17</v>
       </c>
+      <c r="E307" t="s"/>
     </row>
     <row r="308" spans="1:5">
       <c r="A308" t="s">
@@ -5264,9 +5482,10 @@
       <c r="C308" t="s">
         <v>7</v>
       </c>
-      <c r="D308">
-        <v>8</v>
-      </c>
+      <c r="D308" t="n">
+        <v>8</v>
+      </c>
+      <c r="E308" t="s"/>
     </row>
     <row r="309" spans="1:5">
       <c r="A309" t="s">
@@ -5278,9 +5497,10 @@
       <c r="C309" t="s">
         <v>7</v>
       </c>
-      <c r="D309">
-        <v>8</v>
-      </c>
+      <c r="D309" t="n">
+        <v>8</v>
+      </c>
+      <c r="E309" t="s"/>
     </row>
     <row r="310" spans="1:5">
       <c r="A310" t="s">
@@ -5292,9 +5512,10 @@
       <c r="C310" t="s">
         <v>14</v>
       </c>
-      <c r="D310">
+      <c r="D310" t="n">
         <v>16</v>
       </c>
+      <c r="E310" t="s"/>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" t="s">
@@ -5306,7 +5527,8 @@
       <c r="C311" t="s">
         <v>17</v>
       </c>
-      <c r="E311">
+      <c r="D311" t="s"/>
+      <c r="E311" t="n">
         <v>587</v>
       </c>
     </row>
@@ -5320,9 +5542,10 @@
       <c r="C312" t="s">
         <v>7</v>
       </c>
-      <c r="D312">
-        <v>8</v>
-      </c>
+      <c r="D312" t="n">
+        <v>8</v>
+      </c>
+      <c r="E312" t="s"/>
     </row>
     <row r="313" spans="1:5">
       <c r="A313" t="s">
@@ -5334,9 +5557,10 @@
       <c r="C313" t="s">
         <v>7</v>
       </c>
-      <c r="D313">
-        <v>8</v>
-      </c>
+      <c r="D313" t="n">
+        <v>8</v>
+      </c>
+      <c r="E313" t="s"/>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" t="s">
@@ -5348,9 +5572,10 @@
       <c r="C314" t="s">
         <v>14</v>
       </c>
-      <c r="D314">
+      <c r="D314" t="n">
         <v>16</v>
       </c>
+      <c r="E314" t="s"/>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" t="s">
@@ -5362,9 +5587,10 @@
       <c r="C315" t="s">
         <v>7</v>
       </c>
-      <c r="D315">
-        <v>8</v>
-      </c>
+      <c r="D315" t="n">
+        <v>8</v>
+      </c>
+      <c r="E315" t="s"/>
     </row>
     <row r="316" spans="1:5">
       <c r="A316" t="s">
@@ -5376,10 +5602,10 @@
       <c r="C316" t="s">
         <v>9</v>
       </c>
-      <c r="D316">
+      <c r="D316" t="n">
         <v>60</v>
       </c>
-      <c r="E316">
+      <c r="E316" t="n">
         <v>1167</v>
       </c>
     </row>
@@ -5393,10 +5619,10 @@
       <c r="C317" t="s">
         <v>9</v>
       </c>
-      <c r="D317">
-        <v>1</v>
-      </c>
-      <c r="E317">
+      <c r="D317" t="n">
+        <v>1</v>
+      </c>
+      <c r="E317" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5410,10 +5636,10 @@
       <c r="C318" t="s">
         <v>9</v>
       </c>
-      <c r="D318">
-        <v>1</v>
-      </c>
-      <c r="E318">
+      <c r="D318" t="n">
+        <v>1</v>
+      </c>
+      <c r="E318" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5427,10 +5653,10 @@
       <c r="C319" t="s">
         <v>9</v>
       </c>
-      <c r="D319">
-        <v>1</v>
-      </c>
-      <c r="E319">
+      <c r="D319" t="n">
+        <v>1</v>
+      </c>
+      <c r="E319" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5444,9 +5670,10 @@
       <c r="C320" t="s">
         <v>7</v>
       </c>
-      <c r="D320">
-        <v>8</v>
-      </c>
+      <c r="D320" t="n">
+        <v>8</v>
+      </c>
+      <c r="E320" t="s"/>
     </row>
     <row r="321" spans="1:5">
       <c r="A321" t="s">
@@ -5458,9 +5685,10 @@
       <c r="C321" t="s">
         <v>7</v>
       </c>
-      <c r="D321">
-        <v>8</v>
-      </c>
+      <c r="D321" t="n">
+        <v>8</v>
+      </c>
+      <c r="E321" t="s"/>
     </row>
     <row r="322" spans="1:5">
       <c r="A322" t="s">
@@ -5472,9 +5700,10 @@
       <c r="C322" t="s">
         <v>14</v>
       </c>
-      <c r="D322">
+      <c r="D322" t="n">
         <v>16</v>
       </c>
+      <c r="E322" t="s"/>
     </row>
     <row r="323" spans="1:5">
       <c r="A323" t="s">
@@ -5486,9 +5715,10 @@
       <c r="C323" t="s">
         <v>7</v>
       </c>
-      <c r="D323">
-        <v>8</v>
-      </c>
+      <c r="D323" t="n">
+        <v>8</v>
+      </c>
+      <c r="E323" t="s"/>
     </row>
     <row r="324" spans="1:5">
       <c r="A324" t="s">
@@ -5500,10 +5730,10 @@
       <c r="C324" t="s">
         <v>9</v>
       </c>
-      <c r="D324">
+      <c r="D324" t="n">
         <v>60</v>
       </c>
-      <c r="E324">
+      <c r="E324" t="n">
         <v>1021</v>
       </c>
     </row>
@@ -5517,10 +5747,10 @@
       <c r="C325" t="s">
         <v>9</v>
       </c>
-      <c r="D325">
-        <v>1</v>
-      </c>
-      <c r="E325">
+      <c r="D325" t="n">
+        <v>1</v>
+      </c>
+      <c r="E325" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5534,10 +5764,10 @@
       <c r="C326" t="s">
         <v>9</v>
       </c>
-      <c r="D326">
-        <v>1</v>
-      </c>
-      <c r="E326">
+      <c r="D326" t="n">
+        <v>1</v>
+      </c>
+      <c r="E326" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5551,10 +5781,10 @@
       <c r="C327" t="s">
         <v>9</v>
       </c>
-      <c r="D327">
-        <v>1</v>
-      </c>
-      <c r="E327">
+      <c r="D327" t="n">
+        <v>1</v>
+      </c>
+      <c r="E327" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5568,9 +5798,10 @@
       <c r="C328" t="s">
         <v>7</v>
       </c>
-      <c r="D328">
-        <v>8</v>
-      </c>
+      <c r="D328" t="n">
+        <v>8</v>
+      </c>
+      <c r="E328" t="s"/>
     </row>
     <row r="329" spans="1:5">
       <c r="A329" t="s">
@@ -5582,9 +5813,10 @@
       <c r="C329" t="s">
         <v>7</v>
       </c>
-      <c r="D329">
-        <v>8</v>
-      </c>
+      <c r="D329" t="n">
+        <v>8</v>
+      </c>
+      <c r="E329" t="s"/>
     </row>
     <row r="330" spans="1:5">
       <c r="A330" t="s">
@@ -5596,9 +5828,10 @@
       <c r="C330" t="s">
         <v>14</v>
       </c>
-      <c r="D330">
+      <c r="D330" t="n">
         <v>16</v>
       </c>
+      <c r="E330" t="s"/>
     </row>
     <row r="331" spans="1:5">
       <c r="A331" t="s">
@@ -5610,9 +5843,10 @@
       <c r="C331" t="s">
         <v>7</v>
       </c>
-      <c r="D331">
-        <v>8</v>
-      </c>
+      <c r="D331" t="n">
+        <v>8</v>
+      </c>
+      <c r="E331" t="s"/>
     </row>
     <row r="332" spans="1:5">
       <c r="A332" t="s">
@@ -5624,7 +5858,8 @@
       <c r="C332" t="s">
         <v>17</v>
       </c>
-      <c r="E332">
+      <c r="D332" t="s"/>
+      <c r="E332" t="n">
         <v>600</v>
       </c>
     </row>
@@ -5638,9 +5873,10 @@
       <c r="C333" t="s">
         <v>7</v>
       </c>
-      <c r="D333">
-        <v>8</v>
-      </c>
+      <c r="D333" t="n">
+        <v>8</v>
+      </c>
+      <c r="E333" t="s"/>
     </row>
     <row r="334" spans="1:5">
       <c r="A334" t="s">
@@ -5652,9 +5888,10 @@
       <c r="C334" t="s">
         <v>14</v>
       </c>
-      <c r="D334">
+      <c r="D334" t="n">
         <v>16</v>
       </c>
+      <c r="E334" t="s"/>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" t="s">
@@ -5666,9 +5903,10 @@
       <c r="C335" t="s">
         <v>7</v>
       </c>
-      <c r="D335">
-        <v>8</v>
-      </c>
+      <c r="D335" t="n">
+        <v>8</v>
+      </c>
+      <c r="E335" t="s"/>
     </row>
     <row r="336" spans="1:5">
       <c r="A336" t="s">
@@ -5680,9 +5918,10 @@
       <c r="C336" t="s">
         <v>7</v>
       </c>
-      <c r="D336">
-        <v>8</v>
-      </c>
+      <c r="D336" t="n">
+        <v>8</v>
+      </c>
+      <c r="E336" t="s"/>
     </row>
     <row r="337" spans="1:5">
       <c r="A337" t="s">
@@ -5694,9 +5933,10 @@
       <c r="C337" t="s">
         <v>14</v>
       </c>
-      <c r="D337">
+      <c r="D337" t="n">
         <v>16</v>
       </c>
+      <c r="E337" t="s"/>
     </row>
     <row r="338" spans="1:5">
       <c r="A338" t="s">
@@ -5708,9 +5948,10 @@
       <c r="C338" t="s">
         <v>7</v>
       </c>
-      <c r="D338">
-        <v>8</v>
-      </c>
+      <c r="D338" t="n">
+        <v>8</v>
+      </c>
+      <c r="E338" t="s"/>
     </row>
     <row r="339" spans="1:5">
       <c r="A339" t="s">
@@ -5722,10 +5963,10 @@
       <c r="C339" t="s">
         <v>9</v>
       </c>
-      <c r="D339">
+      <c r="D339" t="n">
         <v>60</v>
       </c>
-      <c r="E339">
+      <c r="E339" t="n">
         <v>1086</v>
       </c>
     </row>
@@ -5739,10 +5980,10 @@
       <c r="C340" t="s">
         <v>9</v>
       </c>
-      <c r="D340">
-        <v>1</v>
-      </c>
-      <c r="E340">
+      <c r="D340" t="n">
+        <v>1</v>
+      </c>
+      <c r="E340" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5756,10 +5997,10 @@
       <c r="C341" t="s">
         <v>9</v>
       </c>
-      <c r="D341">
-        <v>1</v>
-      </c>
-      <c r="E341">
+      <c r="D341" t="n">
+        <v>1</v>
+      </c>
+      <c r="E341" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5773,10 +6014,10 @@
       <c r="C342" t="s">
         <v>9</v>
       </c>
-      <c r="D342">
-        <v>1</v>
-      </c>
-      <c r="E342">
+      <c r="D342" t="n">
+        <v>1</v>
+      </c>
+      <c r="E342" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5790,9 +6031,10 @@
       <c r="C343" t="s">
         <v>7</v>
       </c>
-      <c r="D343">
-        <v>8</v>
-      </c>
+      <c r="D343" t="n">
+        <v>8</v>
+      </c>
+      <c r="E343" t="s"/>
     </row>
     <row r="344" spans="1:5">
       <c r="A344" t="s">
@@ -5804,9 +6046,10 @@
       <c r="C344" t="s">
         <v>7</v>
       </c>
-      <c r="D344">
-        <v>8</v>
-      </c>
+      <c r="D344" t="n">
+        <v>8</v>
+      </c>
+      <c r="E344" t="s"/>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" t="s">
@@ -5818,9 +6061,10 @@
       <c r="C345" t="s">
         <v>14</v>
       </c>
-      <c r="D345">
+      <c r="D345" t="n">
         <v>16</v>
       </c>
+      <c r="E345" t="s"/>
     </row>
     <row r="346" spans="1:5">
       <c r="A346" t="s">
@@ -5832,9 +6076,10 @@
       <c r="C346" t="s">
         <v>7</v>
       </c>
-      <c r="D346">
-        <v>8</v>
-      </c>
+      <c r="D346" t="n">
+        <v>8</v>
+      </c>
+      <c r="E346" t="s"/>
     </row>
     <row r="347" spans="1:5">
       <c r="A347" t="s">
@@ -5846,7 +6091,8 @@
       <c r="C347" t="s">
         <v>17</v>
       </c>
-      <c r="E347">
+      <c r="D347" t="s"/>
+      <c r="E347" t="n">
         <v>560</v>
       </c>
     </row>
@@ -5860,9 +6106,10 @@
       <c r="C348" t="s">
         <v>7</v>
       </c>
-      <c r="D348">
-        <v>8</v>
-      </c>
+      <c r="D348" t="n">
+        <v>8</v>
+      </c>
+      <c r="E348" t="s"/>
     </row>
     <row r="349" spans="1:5">
       <c r="A349" t="s">
@@ -5874,9 +6121,10 @@
       <c r="C349" t="s">
         <v>14</v>
       </c>
-      <c r="D349">
+      <c r="D349" t="n">
         <v>16</v>
       </c>
+      <c r="E349" t="s"/>
     </row>
     <row r="350" spans="1:5">
       <c r="A350" t="s">
@@ -5888,9 +6136,10 @@
       <c r="C350" t="s">
         <v>7</v>
       </c>
-      <c r="D350">
-        <v>8</v>
-      </c>
+      <c r="D350" t="n">
+        <v>8</v>
+      </c>
+      <c r="E350" t="s"/>
     </row>
     <row r="351" spans="1:5">
       <c r="A351" t="s">
@@ -5902,9 +6151,10 @@
       <c r="C351" t="s">
         <v>7</v>
       </c>
-      <c r="D351">
-        <v>8</v>
-      </c>
+      <c r="D351" t="n">
+        <v>8</v>
+      </c>
+      <c r="E351" t="s"/>
     </row>
     <row r="352" spans="1:5">
       <c r="A352" t="s">
@@ -5916,9 +6166,10 @@
       <c r="C352" t="s">
         <v>14</v>
       </c>
-      <c r="D352">
+      <c r="D352" t="n">
         <v>16</v>
       </c>
+      <c r="E352" t="s"/>
     </row>
     <row r="353" spans="1:5">
       <c r="A353" t="s">
@@ -5930,9 +6181,10 @@
       <c r="C353" t="s">
         <v>7</v>
       </c>
-      <c r="D353">
-        <v>8</v>
-      </c>
+      <c r="D353" t="n">
+        <v>8</v>
+      </c>
+      <c r="E353" t="s"/>
     </row>
     <row r="354" spans="1:5">
       <c r="A354" t="s">
@@ -5944,7 +6196,8 @@
       <c r="C354" t="s">
         <v>17</v>
       </c>
-      <c r="E354">
+      <c r="D354" t="s"/>
+      <c r="E354" t="n">
         <v>591</v>
       </c>
     </row>
@@ -5958,10 +6211,10 @@
       <c r="C355" t="s">
         <v>9</v>
       </c>
-      <c r="D355">
+      <c r="D355" t="n">
         <v>60</v>
       </c>
-      <c r="E355">
+      <c r="E355" t="n">
         <v>1236</v>
       </c>
     </row>
@@ -5975,10 +6228,10 @@
       <c r="C356" t="s">
         <v>9</v>
       </c>
-      <c r="D356">
-        <v>1</v>
-      </c>
-      <c r="E356">
+      <c r="D356" t="n">
+        <v>1</v>
+      </c>
+      <c r="E356" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5992,10 +6245,10 @@
       <c r="C357" t="s">
         <v>9</v>
       </c>
-      <c r="D357">
-        <v>1</v>
-      </c>
-      <c r="E357">
+      <c r="D357" t="n">
+        <v>1</v>
+      </c>
+      <c r="E357" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6009,10 +6262,10 @@
       <c r="C358" t="s">
         <v>9</v>
       </c>
-      <c r="D358">
-        <v>1</v>
-      </c>
-      <c r="E358">
+      <c r="D358" t="n">
+        <v>1</v>
+      </c>
+      <c r="E358" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6026,9 +6279,10 @@
       <c r="C359" t="s">
         <v>7</v>
       </c>
-      <c r="D359">
-        <v>8</v>
-      </c>
+      <c r="D359" t="n">
+        <v>8</v>
+      </c>
+      <c r="E359" t="s"/>
     </row>
     <row r="360" spans="1:5">
       <c r="A360" t="s">
@@ -6040,9 +6294,10 @@
       <c r="C360" t="s">
         <v>7</v>
       </c>
-      <c r="D360">
-        <v>8</v>
-      </c>
+      <c r="D360" t="n">
+        <v>8</v>
+      </c>
+      <c r="E360" t="s"/>
     </row>
     <row r="361" spans="1:5">
       <c r="A361" t="s">
@@ -6054,9 +6309,10 @@
       <c r="C361" t="s">
         <v>14</v>
       </c>
-      <c r="D361">
+      <c r="D361" t="n">
         <v>16</v>
       </c>
+      <c r="E361" t="s"/>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" t="s">
@@ -6068,9 +6324,10 @@
       <c r="C362" t="s">
         <v>7</v>
       </c>
-      <c r="D362">
-        <v>8</v>
-      </c>
+      <c r="D362" t="n">
+        <v>8</v>
+      </c>
+      <c r="E362" t="s"/>
     </row>
     <row r="363" spans="1:5">
       <c r="A363" t="s">
@@ -6082,7 +6339,8 @@
       <c r="C363" t="s">
         <v>17</v>
       </c>
-      <c r="E363">
+      <c r="D363" t="s"/>
+      <c r="E363" t="n">
         <v>600</v>
       </c>
     </row>
@@ -6096,9 +6354,10 @@
       <c r="C364" t="s">
         <v>7</v>
       </c>
-      <c r="D364">
-        <v>8</v>
-      </c>
+      <c r="D364" t="n">
+        <v>8</v>
+      </c>
+      <c r="E364" t="s"/>
     </row>
     <row r="365" spans="1:5">
       <c r="A365" t="s">
@@ -6110,9 +6369,10 @@
       <c r="C365" t="s">
         <v>14</v>
       </c>
-      <c r="D365">
+      <c r="D365" t="n">
         <v>16</v>
       </c>
+      <c r="E365" t="s"/>
     </row>
     <row r="366" spans="1:5">
       <c r="A366" t="s">
@@ -6124,9 +6384,10 @@
       <c r="C366" t="s">
         <v>14</v>
       </c>
-      <c r="D366" s="2">
+      <c r="D366" t="n">
         <v>17</v>
       </c>
+      <c r="E366" t="s"/>
     </row>
     <row r="367" spans="1:5">
       <c r="A367" t="s">
@@ -6138,7 +6399,8 @@
       <c r="C367" t="s">
         <v>17</v>
       </c>
-      <c r="E367">
+      <c r="D367" t="s"/>
+      <c r="E367" t="n">
         <v>556</v>
       </c>
     </row>
@@ -6152,9 +6414,10 @@
       <c r="C368" t="s">
         <v>7</v>
       </c>
-      <c r="D368">
-        <v>8</v>
-      </c>
+      <c r="D368" t="n">
+        <v>8</v>
+      </c>
+      <c r="E368" t="s"/>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" t="s">
@@ -6166,9 +6429,10 @@
       <c r="C369" t="s">
         <v>7</v>
       </c>
-      <c r="D369">
-        <v>8</v>
-      </c>
+      <c r="D369" t="n">
+        <v>8</v>
+      </c>
+      <c r="E369" t="s"/>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" t="s">
@@ -6180,9 +6444,10 @@
       <c r="C370" t="s">
         <v>14</v>
       </c>
-      <c r="D370">
+      <c r="D370" t="n">
         <v>16</v>
       </c>
+      <c r="E370" t="s"/>
     </row>
     <row r="371" spans="1:5">
       <c r="A371" t="s">
@@ -6194,9 +6459,10 @@
       <c r="C371" t="s">
         <v>7</v>
       </c>
-      <c r="D371">
-        <v>8</v>
-      </c>
+      <c r="D371" t="n">
+        <v>8</v>
+      </c>
+      <c r="E371" t="s"/>
     </row>
     <row r="372" spans="1:5">
       <c r="A372" t="s">
@@ -6208,11 +6474,11 @@
       <c r="C372" t="s">
         <v>9</v>
       </c>
-      <c r="D372" s="2">
+      <c r="D372" t="n">
         <v>59</v>
       </c>
-      <c r="E372">
-        <v>1096</v>
+      <c r="E372" t="n">
+        <v>1756</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6225,10 +6491,10 @@
       <c r="C373" t="s">
         <v>9</v>
       </c>
-      <c r="D373">
-        <v>1</v>
-      </c>
-      <c r="E373">
+      <c r="D373" t="n">
+        <v>1</v>
+      </c>
+      <c r="E373" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6242,10 +6508,10 @@
       <c r="C374" t="s">
         <v>9</v>
       </c>
-      <c r="D374">
-        <v>1</v>
-      </c>
-      <c r="E374">
+      <c r="D374" t="n">
+        <v>1</v>
+      </c>
+      <c r="E374" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6259,10 +6525,10 @@
       <c r="C375" t="s">
         <v>9</v>
       </c>
-      <c r="D375">
-        <v>1</v>
-      </c>
-      <c r="E375">
+      <c r="D375" t="n">
+        <v>1</v>
+      </c>
+      <c r="E375" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6276,9 +6542,10 @@
       <c r="C376" t="s">
         <v>7</v>
       </c>
-      <c r="D376" s="2">
-        <v>9</v>
-      </c>
+      <c r="D376" t="n">
+        <v>9</v>
+      </c>
+      <c r="E376" t="s"/>
     </row>
     <row r="377" spans="1:5">
       <c r="A377" t="s">
@@ -6290,9 +6557,10 @@
       <c r="C377" t="s">
         <v>7</v>
       </c>
-      <c r="D377">
-        <v>8</v>
-      </c>
+      <c r="D377" t="n">
+        <v>8</v>
+      </c>
+      <c r="E377" t="s"/>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" t="s">
@@ -6304,9 +6572,10 @@
       <c r="C378" t="s">
         <v>14</v>
       </c>
-      <c r="D378" s="2">
+      <c r="D378" t="n">
         <v>17</v>
       </c>
+      <c r="E378" t="s"/>
     </row>
     <row r="379" spans="1:5">
       <c r="A379" t="s">
@@ -6318,9 +6587,10 @@
       <c r="C379" t="s">
         <v>7</v>
       </c>
-      <c r="D379">
-        <v>8</v>
-      </c>
+      <c r="D379" t="n">
+        <v>8</v>
+      </c>
+      <c r="E379" t="s"/>
     </row>
     <row r="380" spans="1:5">
       <c r="A380" t="s">
@@ -6332,9 +6602,10 @@
       <c r="C380" t="s">
         <v>14</v>
       </c>
-      <c r="D380" s="2">
+      <c r="D380" t="n">
         <v>17</v>
       </c>
+      <c r="E380" t="s"/>
     </row>
     <row r="381" spans="1:5">
       <c r="A381" t="s">
@@ -6346,9 +6617,10 @@
       <c r="C381" t="s">
         <v>7</v>
       </c>
-      <c r="D381">
-        <v>8</v>
-      </c>
+      <c r="D381" t="n">
+        <v>8</v>
+      </c>
+      <c r="E381" t="s"/>
     </row>
     <row r="382" spans="1:5">
       <c r="A382" t="s">
@@ -6360,7 +6632,8 @@
       <c r="C382" t="s">
         <v>17</v>
       </c>
-      <c r="E382" s="2">
+      <c r="D382" t="s"/>
+      <c r="E382" t="n">
         <v>608</v>
       </c>
     </row>
@@ -6374,9 +6647,10 @@
       <c r="C383" t="s">
         <v>7</v>
       </c>
-      <c r="D383">
-        <v>8</v>
-      </c>
+      <c r="D383" t="n">
+        <v>8</v>
+      </c>
+      <c r="E383" t="s"/>
     </row>
     <row r="384" spans="1:5">
       <c r="A384" t="s">
@@ -6388,9 +6662,10 @@
       <c r="C384" t="s">
         <v>14</v>
       </c>
-      <c r="D384">
+      <c r="D384" t="n">
         <v>16</v>
       </c>
+      <c r="E384" t="s"/>
     </row>
     <row r="385" spans="1:5">
       <c r="A385" t="s">
@@ -6402,9 +6677,10 @@
       <c r="C385" t="s">
         <v>7</v>
       </c>
-      <c r="D385">
-        <v>8</v>
-      </c>
+      <c r="D385" t="n">
+        <v>8</v>
+      </c>
+      <c r="E385" t="s"/>
     </row>
     <row r="386" spans="1:5">
       <c r="A386" t="s">
@@ -6416,10 +6692,10 @@
       <c r="C386" t="s">
         <v>9</v>
       </c>
-      <c r="D386" s="2">
+      <c r="D386" t="n">
         <v>59</v>
       </c>
-      <c r="E386">
+      <c r="E386" t="n">
         <v>1028</v>
       </c>
     </row>
@@ -6433,10 +6709,10 @@
       <c r="C387" t="s">
         <v>9</v>
       </c>
-      <c r="D387">
-        <v>1</v>
-      </c>
-      <c r="E387">
+      <c r="D387" t="n">
+        <v>1</v>
+      </c>
+      <c r="E387" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6450,10 +6726,10 @@
       <c r="C388" t="s">
         <v>9</v>
       </c>
-      <c r="D388">
-        <v>1</v>
-      </c>
-      <c r="E388">
+      <c r="D388" t="n">
+        <v>1</v>
+      </c>
+      <c r="E388" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6467,10 +6743,10 @@
       <c r="C389" t="s">
         <v>9</v>
       </c>
-      <c r="D389">
-        <v>1</v>
-      </c>
-      <c r="E389">
+      <c r="D389" t="n">
+        <v>1</v>
+      </c>
+      <c r="E389" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6484,9 +6760,10 @@
       <c r="C390" t="s">
         <v>7</v>
       </c>
-      <c r="D390" s="2">
-        <v>9</v>
-      </c>
+      <c r="D390" t="n">
+        <v>9</v>
+      </c>
+      <c r="E390" t="s"/>
     </row>
     <row r="391" spans="1:5">
       <c r="A391" t="s">
@@ -6498,9 +6775,10 @@
       <c r="C391" t="s">
         <v>7</v>
       </c>
-      <c r="D391">
-        <v>8</v>
-      </c>
+      <c r="D391" t="n">
+        <v>8</v>
+      </c>
+      <c r="E391" t="s"/>
     </row>
     <row r="392" spans="1:5">
       <c r="A392" t="s">
@@ -6512,9 +6790,10 @@
       <c r="C392" t="s">
         <v>14</v>
       </c>
-      <c r="D392" s="2">
+      <c r="D392" t="n">
         <v>17</v>
       </c>
+      <c r="E392" t="s"/>
     </row>
     <row r="393" spans="1:5">
       <c r="A393" t="s">
@@ -6526,9 +6805,10 @@
       <c r="C393" t="s">
         <v>7</v>
       </c>
-      <c r="D393">
-        <v>8</v>
-      </c>
+      <c r="D393" t="n">
+        <v>8</v>
+      </c>
+      <c r="E393" t="s"/>
     </row>
     <row r="394" spans="1:5">
       <c r="A394" t="s">
@@ -6540,9 +6820,10 @@
       <c r="C394" t="s">
         <v>7</v>
       </c>
-      <c r="D394" s="2">
-        <v>9</v>
-      </c>
+      <c r="D394" t="n">
+        <v>9</v>
+      </c>
+      <c r="E394" t="s"/>
     </row>
     <row r="395" spans="1:5">
       <c r="A395" t="s">
@@ -6554,7 +6835,8 @@
       <c r="C395" t="s">
         <v>17</v>
       </c>
-      <c r="E395">
+      <c r="D395" t="s"/>
+      <c r="E395" t="n">
         <v>556</v>
       </c>
     </row>
@@ -6568,9 +6850,10 @@
       <c r="C396" t="s">
         <v>14</v>
       </c>
-      <c r="D396">
+      <c r="D396" t="n">
         <v>16</v>
       </c>
+      <c r="E396" t="s"/>
     </row>
     <row r="397" spans="1:5">
       <c r="A397" t="s">
@@ -6582,9 +6865,10 @@
       <c r="C397" t="s">
         <v>7</v>
       </c>
-      <c r="D397">
-        <v>8</v>
-      </c>
+      <c r="D397" t="n">
+        <v>8</v>
+      </c>
+      <c r="E397" t="s"/>
     </row>
     <row r="398" spans="1:5">
       <c r="A398" t="s">
@@ -6596,9 +6880,10 @@
       <c r="C398" t="s">
         <v>7</v>
       </c>
-      <c r="D398">
-        <v>8</v>
-      </c>
+      <c r="D398" t="n">
+        <v>8</v>
+      </c>
+      <c r="E398" t="s"/>
     </row>
     <row r="399" spans="1:5">
       <c r="A399" t="s">
@@ -6610,9 +6895,10 @@
       <c r="C399" t="s">
         <v>14</v>
       </c>
-      <c r="D399">
+      <c r="D399" t="n">
         <v>16</v>
       </c>
+      <c r="E399" t="s"/>
     </row>
     <row r="400" spans="1:5">
       <c r="A400" t="s">
@@ -6624,9 +6910,10 @@
       <c r="C400" t="s">
         <v>7</v>
       </c>
-      <c r="D400">
-        <v>8</v>
-      </c>
+      <c r="D400" t="n">
+        <v>8</v>
+      </c>
+      <c r="E400" t="s"/>
     </row>
     <row r="401" spans="1:5">
       <c r="A401" t="s">
@@ -6638,11 +6925,11 @@
       <c r="C401" t="s">
         <v>9</v>
       </c>
-      <c r="D401" s="2">
+      <c r="D401" t="n">
         <v>58</v>
       </c>
-      <c r="E401">
-        <v>1136</v>
+      <c r="E401" t="n">
+        <v>1796</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -6655,10 +6942,10 @@
       <c r="C402" t="s">
         <v>9</v>
       </c>
-      <c r="D402">
-        <v>1</v>
-      </c>
-      <c r="E402">
+      <c r="D402" t="n">
+        <v>1</v>
+      </c>
+      <c r="E402" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6672,10 +6959,10 @@
       <c r="C403" t="s">
         <v>9</v>
       </c>
-      <c r="D403">
-        <v>1</v>
-      </c>
-      <c r="E403">
+      <c r="D403" t="n">
+        <v>1</v>
+      </c>
+      <c r="E403" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6689,10 +6976,10 @@
       <c r="C404" t="s">
         <v>9</v>
       </c>
-      <c r="D404">
-        <v>1</v>
-      </c>
-      <c r="E404">
+      <c r="D404" t="n">
+        <v>1</v>
+      </c>
+      <c r="E404" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6706,9 +6993,10 @@
       <c r="C405" t="s">
         <v>14</v>
       </c>
-      <c r="D405" s="2">
+      <c r="D405" t="n">
         <v>17</v>
       </c>
+      <c r="E405" t="s"/>
     </row>
     <row r="406" spans="1:5">
       <c r="A406" t="s">
@@ -6720,9 +7008,10 @@
       <c r="C406" t="s">
         <v>7</v>
       </c>
-      <c r="D406" s="2">
+      <c r="D406" t="n">
         <v>18</v>
       </c>
+      <c r="E406" t="s"/>
     </row>
     <row r="407" spans="1:5">
       <c r="A407" t="s">
@@ -6734,9 +7023,10 @@
       <c r="C407" t="s">
         <v>7</v>
       </c>
-      <c r="D407">
-        <v>8</v>
-      </c>
+      <c r="D407" t="n">
+        <v>8</v>
+      </c>
+      <c r="E407" t="s"/>
     </row>
     <row r="408" spans="1:5">
       <c r="A408" t="s">
@@ -6748,7 +7038,8 @@
       <c r="C408" t="s">
         <v>17</v>
       </c>
-      <c r="E408">
+      <c r="D408" t="s"/>
+      <c r="E408" t="n">
         <v>542</v>
       </c>
     </row>
@@ -6762,9 +7053,10 @@
       <c r="C409" t="s">
         <v>14</v>
       </c>
-      <c r="D409">
+      <c r="D409" t="n">
         <v>16</v>
       </c>
+      <c r="E409" t="s"/>
     </row>
     <row r="410" spans="1:5">
       <c r="A410" t="s">
@@ -6776,9 +7068,10 @@
       <c r="C410" t="s">
         <v>7</v>
       </c>
-      <c r="D410">
-        <v>8</v>
-      </c>
+      <c r="D410" t="n">
+        <v>8</v>
+      </c>
+      <c r="E410" t="s"/>
     </row>
     <row r="411" spans="1:5">
       <c r="A411" t="s">
@@ -6790,9 +7083,10 @@
       <c r="C411" t="s">
         <v>7</v>
       </c>
-      <c r="D411">
-        <v>8</v>
-      </c>
+      <c r="D411" t="n">
+        <v>8</v>
+      </c>
+      <c r="E411" t="s"/>
     </row>
     <row r="412" spans="1:5">
       <c r="A412" t="s">
@@ -6804,9 +7098,10 @@
       <c r="C412" t="s">
         <v>14</v>
       </c>
-      <c r="D412">
+      <c r="D412" t="n">
         <v>16</v>
       </c>
+      <c r="E412" t="s"/>
     </row>
     <row r="413" spans="1:5">
       <c r="A413" t="s">
@@ -6818,9 +7113,10 @@
       <c r="C413" t="s">
         <v>7</v>
       </c>
-      <c r="D413">
-        <v>8</v>
-      </c>
+      <c r="D413" t="n">
+        <v>8</v>
+      </c>
+      <c r="E413" t="s"/>
     </row>
     <row r="414" spans="1:5">
       <c r="A414" t="s">
@@ -6832,9 +7128,10 @@
       <c r="C414" t="s">
         <v>7</v>
       </c>
-      <c r="D414">
-        <v>8</v>
-      </c>
+      <c r="D414" t="n">
+        <v>8</v>
+      </c>
+      <c r="E414" t="s"/>
     </row>
     <row r="415" spans="1:5">
       <c r="A415" t="s">
@@ -6846,7 +7143,8 @@
       <c r="C415" t="s">
         <v>17</v>
       </c>
-      <c r="E415">
+      <c r="D415" t="s"/>
+      <c r="E415" t="n">
         <v>580</v>
       </c>
     </row>
@@ -6860,10 +7158,10 @@
       <c r="C416" t="s">
         <v>9</v>
       </c>
-      <c r="D416">
+      <c r="D416" t="n">
         <v>60</v>
       </c>
-      <c r="E416">
+      <c r="E416" t="n">
         <v>1162</v>
       </c>
     </row>
@@ -6877,10 +7175,10 @@
       <c r="C417" t="s">
         <v>9</v>
       </c>
-      <c r="D417">
-        <v>1</v>
-      </c>
-      <c r="E417">
+      <c r="D417" t="n">
+        <v>1</v>
+      </c>
+      <c r="E417" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6894,10 +7192,10 @@
       <c r="C418" t="s">
         <v>9</v>
       </c>
-      <c r="D418">
-        <v>1</v>
-      </c>
-      <c r="E418">
+      <c r="D418" t="n">
+        <v>1</v>
+      </c>
+      <c r="E418" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6911,10 +7209,10 @@
       <c r="C419" t="s">
         <v>9</v>
       </c>
-      <c r="D419">
-        <v>1</v>
-      </c>
-      <c r="E419">
+      <c r="D419" t="n">
+        <v>1</v>
+      </c>
+      <c r="E419" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6928,9 +7226,10 @@
       <c r="C420" t="s">
         <v>7</v>
       </c>
-      <c r="D420" s="2">
+      <c r="D420" t="n">
         <v>16</v>
       </c>
+      <c r="E420" t="s"/>
     </row>
     <row r="421" spans="1:5">
       <c r="A421" t="s">
@@ -6942,9 +7241,10 @@
       <c r="C421" t="s">
         <v>14</v>
       </c>
-      <c r="D421">
+      <c r="D421" t="n">
         <v>16</v>
       </c>
+      <c r="E421" t="s"/>
     </row>
     <row r="422" spans="1:5">
       <c r="A422" t="s">
@@ -6956,9 +7256,10 @@
       <c r="C422" t="s">
         <v>7</v>
       </c>
-      <c r="D422">
-        <v>8</v>
-      </c>
+      <c r="D422" t="n">
+        <v>8</v>
+      </c>
+      <c r="E422" t="s"/>
     </row>
     <row r="423" spans="1:5">
       <c r="A423" t="s">
@@ -6970,9 +7271,10 @@
       <c r="C423" t="s">
         <v>7</v>
       </c>
-      <c r="D423">
-        <v>8</v>
-      </c>
+      <c r="D423" t="n">
+        <v>8</v>
+      </c>
+      <c r="E423" t="s"/>
     </row>
     <row r="424" spans="1:5">
       <c r="A424" t="s">
@@ -6984,9 +7286,10 @@
       <c r="C424" t="s">
         <v>14</v>
       </c>
-      <c r="D424" s="2">
+      <c r="D424" t="n">
         <v>15</v>
       </c>
+      <c r="E424" t="s"/>
     </row>
     <row r="425" spans="1:5">
       <c r="A425" t="s">
@@ -6998,7 +7301,8 @@
       <c r="C425" t="s">
         <v>17</v>
       </c>
-      <c r="E425" s="2">
+      <c r="D425" t="s"/>
+      <c r="E425" t="n">
         <v>603</v>
       </c>
     </row>
@@ -7012,9 +7316,10 @@
       <c r="C426" t="s">
         <v>7</v>
       </c>
-      <c r="D426">
-        <v>8</v>
-      </c>
+      <c r="D426" t="n">
+        <v>8</v>
+      </c>
+      <c r="E426" t="s"/>
     </row>
     <row r="427" spans="1:5">
       <c r="A427" t="s">
@@ -7026,9 +7331,10 @@
       <c r="C427" t="s">
         <v>7</v>
       </c>
-      <c r="D427">
-        <v>8</v>
-      </c>
+      <c r="D427" t="n">
+        <v>8</v>
+      </c>
+      <c r="E427" t="s"/>
     </row>
     <row r="428" spans="1:5">
       <c r="A428" t="s">
@@ -7040,9 +7346,10 @@
       <c r="C428" t="s">
         <v>14</v>
       </c>
-      <c r="D428" s="2">
+      <c r="D428" t="n">
         <v>17</v>
       </c>
+      <c r="E428" t="s"/>
     </row>
     <row r="429" spans="1:5">
       <c r="A429" t="s">
@@ -7054,9 +7361,10 @@
       <c r="C429" t="s">
         <v>7</v>
       </c>
-      <c r="D429">
-        <v>8</v>
-      </c>
+      <c r="D429" t="n">
+        <v>8</v>
+      </c>
+      <c r="E429" t="s"/>
     </row>
     <row r="430" spans="1:5">
       <c r="A430" t="s">
@@ -7068,10 +7376,10 @@
       <c r="C430" t="s">
         <v>9</v>
       </c>
-      <c r="D430">
+      <c r="D430" t="n">
         <v>60</v>
       </c>
-      <c r="E430">
+      <c r="E430" t="n">
         <v>1203</v>
       </c>
     </row>
@@ -7085,10 +7393,10 @@
       <c r="C431" t="s">
         <v>9</v>
       </c>
-      <c r="D431">
-        <v>1</v>
-      </c>
-      <c r="E431">
+      <c r="D431" t="n">
+        <v>1</v>
+      </c>
+      <c r="E431" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7102,10 +7410,10 @@
       <c r="C432" t="s">
         <v>9</v>
       </c>
-      <c r="D432">
-        <v>1</v>
-      </c>
-      <c r="E432">
+      <c r="D432" t="n">
+        <v>1</v>
+      </c>
+      <c r="E432" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7119,10 +7427,10 @@
       <c r="C433" t="s">
         <v>9</v>
       </c>
-      <c r="D433">
-        <v>1</v>
-      </c>
-      <c r="E433">
+      <c r="D433" t="n">
+        <v>1</v>
+      </c>
+      <c r="E433" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7136,9 +7444,10 @@
       <c r="C434" t="s">
         <v>7</v>
       </c>
-      <c r="D434">
-        <v>8</v>
-      </c>
+      <c r="D434" t="n">
+        <v>8</v>
+      </c>
+      <c r="E434" t="s"/>
     </row>
     <row r="435" spans="1:5">
       <c r="A435" t="s">
@@ -7150,9 +7459,10 @@
       <c r="C435" t="s">
         <v>7</v>
       </c>
-      <c r="D435">
-        <v>8</v>
-      </c>
+      <c r="D435" t="n">
+        <v>8</v>
+      </c>
+      <c r="E435" t="s"/>
     </row>
     <row r="436" spans="1:5">
       <c r="A436" t="s">
@@ -7164,23 +7474,29 @@
       <c r="C436" t="s">
         <v>14</v>
       </c>
-      <c r="D436">
+      <c r="D436" t="n">
         <v>16</v>
       </c>
+      <c r="E436" t="s"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E436"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -7200,13 +7516,13 @@
       <c r="A2" t="s">
         <v>68</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>44</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7214,13 +7530,13 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>31</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7228,13 +7544,13 @@
       <c r="A4" t="s">
         <v>57</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>27</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7242,13 +7558,13 @@
       <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>37</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7256,13 +7572,13 @@
       <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>22</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7270,13 +7586,13 @@
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>34</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7284,13 +7600,13 @@
       <c r="A8" t="s">
         <v>92</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>2</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>13</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7298,13 +7614,13 @@
       <c r="A9" t="s">
         <v>39</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>2</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>10</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7312,13 +7628,13 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>2</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>32</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7326,13 +7642,13 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>28</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7340,13 +7656,13 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>2</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>38</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7354,13 +7670,13 @@
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>2</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>21</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7368,13 +7684,13 @@
       <c r="A14" t="s">
         <v>40</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>2</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>25</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7382,13 +7698,13 @@
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>2</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>15</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7396,13 +7712,13 @@
       <c r="A16" t="s">
         <v>63</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>2</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>11</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7410,13 +7726,13 @@
       <c r="A17" t="s">
         <v>69</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>2</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>4</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7424,13 +7740,13 @@
       <c r="A18" t="s">
         <v>70</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>2</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>24</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7438,13 +7754,13 @@
       <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>2</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>15</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7452,13 +7768,13 @@
       <c r="A20" t="s">
         <v>52</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>2</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>23</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7466,13 +7782,13 @@
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>2</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>21</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7480,13 +7796,13 @@
       <c r="A22" t="s">
         <v>42</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>2</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>21</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7494,13 +7810,13 @@
       <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>2</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>18</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7508,13 +7824,13 @@
       <c r="A24" t="s">
         <v>64</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>2</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>6</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7522,13 +7838,13 @@
       <c r="A25" t="s">
         <v>78</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>2</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>3</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7536,13 +7852,13 @@
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>2</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>15</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7550,13 +7866,13 @@
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>2</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>12</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7564,13 +7880,13 @@
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>2</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>21</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7578,13 +7894,13 @@
       <c r="A29" t="s">
         <v>13</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>2</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>27</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7592,13 +7908,13 @@
       <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>2</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>30</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7606,13 +7922,13 @@
       <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>2</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>6</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7620,13 +7936,13 @@
       <c r="A32" t="s">
         <v>43</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>2</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>19</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7634,13 +7950,13 @@
       <c r="A33" t="s">
         <v>44</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>2</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>12</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7648,13 +7964,13 @@
       <c r="A34" t="s">
         <v>45</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>2</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>6</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7662,13 +7978,13 @@
       <c r="A35" t="s">
         <v>49</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>2</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>15</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7676,13 +7992,13 @@
       <c r="A36" t="s">
         <v>50</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>2</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>18</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7690,13 +8006,13 @@
       <c r="A37" t="s">
         <v>15</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>2</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>18</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7704,13 +8020,13 @@
       <c r="A38" t="s">
         <v>53</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>2</v>
       </c>
-      <c r="C38">
-        <v>9</v>
-      </c>
-      <c r="D38">
+      <c r="C38" t="n">
+        <v>9</v>
+      </c>
+      <c r="D38" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7718,13 +8034,13 @@
       <c r="A39" t="s">
         <v>34</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>2</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>12</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7732,13 +8048,13 @@
       <c r="A40" t="s">
         <v>65</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>2</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>12</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7746,13 +8062,13 @@
       <c r="A41" t="s">
         <v>59</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>2</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>22</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7760,13 +8076,13 @@
       <c r="A42" t="s">
         <v>54</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>2</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>4</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7774,13 +8090,13 @@
       <c r="A43" t="s">
         <v>16</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>2</v>
       </c>
-      <c r="C43">
-        <v>20</v>
-      </c>
-      <c r="D43">
+      <c r="C43" t="n">
+        <v>20</v>
+      </c>
+      <c r="D43" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7788,13 +8104,13 @@
       <c r="A44" t="s">
         <v>55</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>2</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>12</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7802,13 +8118,13 @@
       <c r="A45" t="s">
         <v>18</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>2</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>34</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7816,13 +8132,13 @@
       <c r="A46" t="s">
         <v>60</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>2</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>12</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7830,13 +8146,13 @@
       <c r="A47" t="s">
         <v>35</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>2</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>18</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7844,13 +8160,13 @@
       <c r="A48" t="s">
         <v>66</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>2</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>12</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7858,13 +8174,13 @@
       <c r="A49" t="s">
         <v>71</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>2</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>41</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7872,13 +8188,13 @@
       <c r="A50" t="s">
         <v>46</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>2</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>12</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7886,13 +8202,13 @@
       <c r="A51" t="s">
         <v>75</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>2</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>25</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7900,13 +8216,13 @@
       <c r="A52" t="s">
         <v>72</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>2</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>22</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7914,13 +8230,13 @@
       <c r="A53" t="s">
         <v>19</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>2</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>43</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7928,13 +8244,13 @@
       <c r="A54" t="s">
         <v>61</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>2</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>15</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7942,13 +8258,13 @@
       <c r="A55" t="s">
         <v>36</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>2</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>34</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7956,13 +8272,13 @@
       <c r="A56" t="s">
         <v>28</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>2</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>16</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7970,13 +8286,13 @@
       <c r="A57" t="s">
         <v>79</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>2</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>31</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7984,13 +8300,13 @@
       <c r="A58" t="s">
         <v>47</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>2</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>16</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>66</v>
       </c>
     </row>
@@ -7998,13 +8314,13 @@
       <c r="A59" t="s">
         <v>81</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>2</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>21</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>66</v>
       </c>
     </row>
@@ -8012,13 +8328,13 @@
       <c r="A60" t="s">
         <v>73</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>2</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>24</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>66</v>
       </c>
     </row>
@@ -8026,13 +8342,13 @@
       <c r="A61" t="s">
         <v>20</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>2</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>49</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>66</v>
       </c>
     </row>
@@ -8040,13 +8356,13 @@
       <c r="A62" t="s">
         <v>8</v>
       </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62">
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
         <v>3</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8054,13 +8370,13 @@
       <c r="A63" t="s">
         <v>10</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63">
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
         <v>3</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8068,13 +8384,13 @@
       <c r="A64" t="s">
         <v>11</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64">
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
         <v>3</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8082,13 +8398,13 @@
       <c r="A65" t="s">
         <v>12</v>
       </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65">
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
         <v>4</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8096,13 +8412,13 @@
       <c r="A66" t="s">
         <v>40</v>
       </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66">
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
         <v>2</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8110,13 +8426,13 @@
       <c r="A67" t="s">
         <v>30</v>
       </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67">
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
         <v>2</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8124,13 +8440,13 @@
       <c r="A68" t="s">
         <v>63</v>
       </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68">
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
         <v>3</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8138,13 +8454,13 @@
       <c r="A69" t="s">
         <v>69</v>
       </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69">
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
         <v>3</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8152,13 +8468,13 @@
       <c r="A70" t="s">
         <v>70</v>
       </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70">
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
         <v>3</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8166,13 +8482,13 @@
       <c r="A71" t="s">
         <v>41</v>
       </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71">
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
         <v>3</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8180,13 +8496,13 @@
       <c r="A72" t="s">
         <v>52</v>
       </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72">
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
         <v>3</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8194,13 +8510,13 @@
       <c r="A73" t="s">
         <v>24</v>
       </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="C73">
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
         <v>3</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8208,13 +8524,13 @@
       <c r="A74" t="s">
         <v>42</v>
       </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74">
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
         <v>3</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8222,13 +8538,13 @@
       <c r="A75" t="s">
         <v>31</v>
       </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75">
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
         <v>3</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8236,13 +8552,13 @@
       <c r="A76" t="s">
         <v>64</v>
       </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76">
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
         <v>3</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8250,13 +8566,13 @@
       <c r="A77" t="s">
         <v>78</v>
       </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77">
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
         <v>3</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8264,13 +8580,13 @@
       <c r="A78" t="s">
         <v>25</v>
       </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78">
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
         <v>3</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8278,13 +8594,13 @@
       <c r="A79" t="s">
         <v>26</v>
       </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79">
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
         <v>3</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8292,13 +8608,13 @@
       <c r="A80" t="s">
         <v>27</v>
       </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="C80">
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
         <v>3</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8306,13 +8622,13 @@
       <c r="A81" t="s">
         <v>13</v>
       </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-      <c r="C81">
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
         <v>4</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8320,13 +8636,13 @@
       <c r="A82" t="s">
         <v>32</v>
       </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82">
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
         <v>3</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8334,13 +8650,13 @@
       <c r="A83" t="s">
         <v>33</v>
       </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="C83">
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="n">
         <v>5</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8348,13 +8664,13 @@
       <c r="A84" t="s">
         <v>43</v>
       </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="C84">
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
         <v>4</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8362,13 +8678,13 @@
       <c r="A85" t="s">
         <v>44</v>
       </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85">
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
         <v>2</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8376,13 +8692,13 @@
       <c r="A86" t="s">
         <v>45</v>
       </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="C86">
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
         <v>4</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8390,13 +8706,13 @@
       <c r="A87" t="s">
         <v>49</v>
       </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87">
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
         <v>3</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8404,13 +8720,13 @@
       <c r="A88" t="s">
         <v>50</v>
       </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="C88">
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
         <v>5</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8418,13 +8734,13 @@
       <c r="A89" t="s">
         <v>15</v>
       </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-      <c r="C89">
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
         <v>5</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8432,13 +8748,13 @@
       <c r="A90" t="s">
         <v>53</v>
       </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90">
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="n">
         <v>4</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8446,13 +8762,13 @@
       <c r="A91" t="s">
         <v>34</v>
       </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91">
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
         <v>5</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8460,13 +8776,13 @@
       <c r="A92" t="s">
         <v>65</v>
       </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="C92">
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
         <v>4</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8474,13 +8790,13 @@
       <c r="A93" t="s">
         <v>59</v>
       </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-      <c r="C93">
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="n">
         <v>4</v>
       </c>
-      <c r="D93">
+      <c r="D93" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8488,13 +8804,13 @@
       <c r="A94" t="s">
         <v>54</v>
       </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-      <c r="C94">
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
         <v>4</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8502,13 +8818,13 @@
       <c r="A95" t="s">
         <v>16</v>
       </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-      <c r="C95">
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="n">
         <v>3</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8516,13 +8832,13 @@
       <c r="A96" t="s">
         <v>55</v>
       </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="C96">
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="n">
         <v>2</v>
       </c>
-      <c r="D96">
+      <c r="D96" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8530,13 +8846,13 @@
       <c r="A97" t="s">
         <v>18</v>
       </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-      <c r="C97">
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="n">
         <v>2</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8544,17 +8860,905 @@
       <c r="A98" t="s">
         <v>60</v>
       </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>107</v>
+      </c>
+      <c r="B67" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>107</v>
+      </c>
+      <c r="B71" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>107</v>
+      </c>
+      <c r="B73" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>107</v>
+      </c>
+      <c r="B74" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" t="s">
+        <v>51</v>
+      </c>
+      <c r="C76" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>